--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="181">
   <si>
     <t>入口</t>
   </si>
@@ -599,52 +599,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,14 +634,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -689,22 +666,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,14 +700,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,6 +718,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -751,7 +751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,13 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,37 +841,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,25 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,43 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,24 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1019,6 +1001,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1030,30 +1039,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1068,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:AA194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85:H85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I91" workbookViewId="0">
+      <selection activeCell="AA129" sqref="AA129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6550,13 +6550,9 @@
         <v>150</v>
       </c>
       <c r="M104" s="13"/>
-      <c r="N104" s="7">
-        <v>43915</v>
-      </c>
+      <c r="N104" s="7"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="7">
-        <v>43916</v>
-      </c>
+      <c r="P104" s="7"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
         <v>124</v>
@@ -7740,7 +7736,9 @@
       <c r="Z125" s="14">
         <v>43948</v>
       </c>
-      <c r="AA125" s="5"/>
+      <c r="AA125" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="5"/>
@@ -7795,7 +7793,9 @@
       <c r="Z126" s="14">
         <v>43948</v>
       </c>
-      <c r="AA126" s="5"/>
+      <c r="AA126" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="5"/>
@@ -7850,7 +7850,9 @@
       <c r="Z127" s="14">
         <v>43948</v>
       </c>
-      <c r="AA127" s="5"/>
+      <c r="AA127" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="5"/>
@@ -7905,7 +7907,9 @@
       <c r="Z128" s="14">
         <v>43951</v>
       </c>
-      <c r="AA128" s="5"/>
+      <c r="AA128" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="5"/>
@@ -8003,7 +8007,9 @@
       <c r="Z130" s="14">
         <v>43951</v>
       </c>
-      <c r="AA130" s="5"/>
+      <c r="AA130" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="16"/>

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -442,6 +442,9 @@
     <t>会员等级申请</t>
   </si>
   <si>
+    <t>黄辉勇</t>
+  </si>
+  <si>
     <t>会员等级申请记录分页查询</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
   </si>
   <si>
     <t>佣金提现申请</t>
-  </si>
-  <si>
-    <t>黄辉勇</t>
   </si>
   <si>
     <t>佣金体现申请分页查询</t>
@@ -613,7 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,8 +626,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,17 +650,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,16 +672,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -688,40 +696,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,10 +719,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -751,13 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +769,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +877,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,55 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,43 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,6 +986,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1010,20 +1019,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,21 +1064,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1069,17 +1075,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,7 +1094,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:AA194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I91" workbookViewId="0">
-      <selection activeCell="AA129" sqref="AA129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6212,17 +6212,13 @@
       <c r="K98" s="12">
         <v>43915</v>
       </c>
-      <c r="L98" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M98" s="11"/>
-      <c r="N98" s="7">
-        <v>43914</v>
-      </c>
+      <c r="L98" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M98" s="13"/>
+      <c r="N98" s="7"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="7">
-        <v>43915</v>
-      </c>
+      <c r="P98" s="7"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2" t="s">
         <v>124</v>
@@ -6255,7 +6251,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="5" t="s">
@@ -6267,17 +6263,13 @@
       <c r="K99" s="12">
         <v>43915</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M99" s="11"/>
-      <c r="N99" s="7">
-        <v>43914</v>
-      </c>
+      <c r="L99" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M99" s="13"/>
+      <c r="N99" s="7"/>
       <c r="O99" s="2"/>
-      <c r="P99" s="7">
-        <v>43915</v>
-      </c>
+      <c r="P99" s="7"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2" t="s">
         <v>124</v>
@@ -6310,7 +6302,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="5" t="s">
@@ -6322,17 +6314,13 @@
       <c r="K100" s="12">
         <v>43915</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="7">
-        <v>43914</v>
-      </c>
+      <c r="L100" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M100" s="13"/>
+      <c r="N100" s="7"/>
       <c r="O100" s="2"/>
-      <c r="P100" s="7">
-        <v>43915</v>
-      </c>
+      <c r="P100" s="7"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2" t="s">
         <v>124</v>
@@ -6365,7 +6353,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="5" t="s">
@@ -6377,17 +6365,13 @@
       <c r="K101" s="12">
         <v>43915</v>
       </c>
-      <c r="L101" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="11"/>
-      <c r="N101" s="7">
-        <v>43914</v>
-      </c>
+      <c r="L101" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M101" s="13"/>
+      <c r="N101" s="7"/>
       <c r="O101" s="2"/>
-      <c r="P101" s="7">
-        <v>43915</v>
-      </c>
+      <c r="P101" s="7"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
         <v>124</v>
@@ -6418,11 +6402,11 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="5" t="s">
@@ -6475,11 +6459,11 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="5" t="s">
@@ -6534,7 +6518,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="5" t="s">
@@ -6547,7 +6531,7 @@
         <v>43916</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M104" s="13"/>
       <c r="N104" s="7"/>
@@ -7374,7 +7358,7 @@
         <v>43917</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="7"/>
@@ -7761,7 +7745,7 @@
         <v>43914</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="7">
@@ -7818,7 +7802,7 @@
         <v>43914</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="7">
@@ -7875,7 +7859,7 @@
         <v>43914</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="7">

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -391,7 +391,7 @@
     <t>谭文静</t>
   </si>
   <si>
-    <t>后端完成</t>
+    <t>前端完成</t>
   </si>
   <si>
     <t>查看已完成任务详情</t>
@@ -565,9 +565,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -599,14 +599,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,8 +643,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,62 +659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,9 +675,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,9 +712,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +728,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,96 +748,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -853,7 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +781,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,25 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,25 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,39 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1034,6 +1001,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1045,21 +1021,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1044,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:AA194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106:F109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I91" workbookViewId="0">
+      <selection activeCell="AB125" sqref="AB125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9270,7 +9270,7 @@
     <mergeCell ref="E2:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA86 AA87 AA88 AA89 AA90 AA1:AA85 AA91:AA97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA84 AA85:AA97 AA124:AA130">
       <formula1>"Ui开始,UI结束,后端开始,后端完成,前端开始,前端完成,测试开始,测试完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="188">
   <si>
     <t>入口</t>
   </si>
@@ -70,6 +70,9 @@
     <t>王婷</t>
   </si>
   <si>
+    <t>后端完成</t>
+  </si>
+  <si>
     <t>添加行业类型</t>
   </si>
   <si>
@@ -497,9 +500,6 @@
   </si>
   <si>
     <t>创建公司、包含附件信息</t>
-  </si>
-  <si>
-    <t>后端完成</t>
   </si>
   <si>
     <t>新增公司成员、分配岗位</t>
@@ -585,9 +585,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -634,15 +634,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +657,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -678,24 +718,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,17 +733,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,30 +757,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,7 +778,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,19 +868,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,43 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,25 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,61 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,6 +1069,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1093,17 +1143,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,50 +1166,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,137 +1186,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,9 +1405,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1740,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118:H118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="AA59" sqref="AA59:AA65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1871,7 +1868,9 @@
       <c r="Z2" s="12">
         <v>43923</v>
       </c>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="6"/>
@@ -1881,7 +1880,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9"/>
@@ -1916,7 +1915,9 @@
       <c r="Z3" s="12">
         <v>43923</v>
       </c>
-      <c r="AA3" s="9"/>
+      <c r="AA3" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="6"/>
@@ -1926,7 +1927,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="9"/>
@@ -1961,7 +1962,9 @@
       <c r="Z4" s="12">
         <v>43923</v>
       </c>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="6"/>
@@ -1971,7 +1974,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9"/>
@@ -2006,7 +2009,9 @@
       <c r="Z5" s="12">
         <v>43923</v>
       </c>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="6"/>
@@ -2016,7 +2021,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9"/>
@@ -2051,7 +2056,9 @@
       <c r="Z6" s="12">
         <v>43923</v>
       </c>
-      <c r="AA6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="6"/>
@@ -2059,11 +2066,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9"/>
@@ -2098,7 +2105,9 @@
       <c r="Z7" s="12">
         <v>43923</v>
       </c>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="6"/>
@@ -2108,7 +2117,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="9"/>
@@ -2143,7 +2152,9 @@
       <c r="Z8" s="12">
         <v>43923</v>
       </c>
-      <c r="AA8" s="9"/>
+      <c r="AA8" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="6"/>
@@ -2153,7 +2164,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="9"/>
@@ -2188,7 +2199,9 @@
       <c r="Z9" s="12">
         <v>43923</v>
       </c>
-      <c r="AA9" s="9"/>
+      <c r="AA9" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="6"/>
@@ -2198,7 +2211,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="9"/>
@@ -2233,7 +2246,9 @@
       <c r="Z10" s="12">
         <v>43923</v>
       </c>
-      <c r="AA10" s="9"/>
+      <c r="AA10" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="6"/>
@@ -2243,7 +2258,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="9"/>
@@ -2278,7 +2293,9 @@
       <c r="Z11" s="12">
         <v>43923</v>
       </c>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="6"/>
@@ -2288,7 +2305,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>
@@ -2323,7 +2340,9 @@
       <c r="Z12" s="12">
         <v>43923</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="6"/>
@@ -2333,7 +2352,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="9"/>
@@ -2368,7 +2387,9 @@
       <c r="Z13" s="12">
         <v>43923</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="6"/>
@@ -2376,11 +2397,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="9"/>
@@ -2415,7 +2436,9 @@
       <c r="Z14" s="12">
         <v>43923</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="6"/>
@@ -2425,7 +2448,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="9"/>
@@ -2460,7 +2483,9 @@
       <c r="Z15" s="12">
         <v>43923</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="6"/>
@@ -2470,7 +2495,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="9"/>
@@ -2505,7 +2530,9 @@
       <c r="Z16" s="12">
         <v>43923</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="6"/>
@@ -2515,7 +2542,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="9"/>
@@ -2550,7 +2577,9 @@
       <c r="Z17" s="12">
         <v>43923</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="6"/>
@@ -2560,7 +2589,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="9"/>
@@ -2595,7 +2624,9 @@
       <c r="Z18" s="12">
         <v>43923</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="6"/>
@@ -2607,7 +2638,7 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
@@ -2642,7 +2673,9 @@
       <c r="Z19" s="12">
         <v>43923</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="6"/>
@@ -2652,7 +2685,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="9"/>
@@ -2687,7 +2720,9 @@
       <c r="Z20" s="12">
         <v>43923</v>
       </c>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="6"/>
@@ -2697,7 +2732,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="9"/>
@@ -2732,7 +2767,9 @@
       <c r="Z21" s="12">
         <v>43923</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="6"/>
@@ -2740,11 +2777,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="9"/>
@@ -2779,7 +2816,9 @@
       <c r="Z22" s="12">
         <v>43923</v>
       </c>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="6"/>
@@ -2789,7 +2828,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="9"/>
@@ -2824,21 +2863,23 @@
       <c r="Z23" s="12">
         <v>43923</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
@@ -2865,7 +2906,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y24" s="12">
         <v>43918</v>
@@ -2873,7 +2914,9 @@
       <c r="Z24" s="12">
         <v>43924</v>
       </c>
-      <c r="AA24" s="9"/>
+      <c r="AA24" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="6"/>
@@ -2883,7 +2926,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="9"/>
@@ -2910,7 +2953,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y25" s="12">
         <v>43918</v>
@@ -2918,7 +2961,9 @@
       <c r="Z25" s="12">
         <v>43924</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="6"/>
@@ -2928,7 +2973,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="9"/>
@@ -2955,7 +3000,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y26" s="12">
         <v>43918</v>
@@ -2963,7 +3008,9 @@
       <c r="Z26" s="12">
         <v>43924</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="6"/>
@@ -2973,7 +3020,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="9"/>
@@ -3000,7 +3047,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y27" s="12">
         <v>43918</v>
@@ -3008,7 +3055,9 @@
       <c r="Z27" s="12">
         <v>43924</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="6"/>
@@ -3018,7 +3067,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="9"/>
@@ -3045,7 +3094,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y28" s="12">
         <v>43918</v>
@@ -3053,7 +3102,9 @@
       <c r="Z28" s="12">
         <v>43924</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="6"/>
@@ -3063,7 +3114,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9"/>
@@ -3090,7 +3141,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y29" s="12">
         <v>43918</v>
@@ -3098,7 +3149,9 @@
       <c r="Z29" s="12">
         <v>43924</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="6"/>
@@ -3106,11 +3159,11 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="9"/>
@@ -3137,7 +3190,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y30" s="12">
         <v>43918</v>
@@ -3145,7 +3198,9 @@
       <c r="Z30" s="12">
         <v>43924</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="6"/>
@@ -3155,7 +3210,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="9"/>
@@ -3182,7 +3237,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y31" s="12">
         <v>43918</v>
@@ -3190,7 +3245,9 @@
       <c r="Z31" s="12">
         <v>43924</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="6"/>
@@ -3198,11 +3255,11 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="9"/>
@@ -3229,7 +3286,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y32" s="12">
         <v>43918</v>
@@ -3237,7 +3294,9 @@
       <c r="Z32" s="12">
         <v>43924</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="6"/>
@@ -3247,7 +3306,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="9"/>
@@ -3274,7 +3333,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y33" s="12">
         <v>43918</v>
@@ -3282,7 +3341,9 @@
       <c r="Z33" s="12">
         <v>43924</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="6"/>
@@ -3292,7 +3353,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="9"/>
@@ -3319,7 +3380,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y34" s="12">
         <v>43918</v>
@@ -3327,7 +3388,9 @@
       <c r="Z34" s="12">
         <v>43924</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="6"/>
@@ -3337,7 +3400,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="9"/>
@@ -3364,7 +3427,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y35" s="12">
         <v>43918</v>
@@ -3372,7 +3435,9 @@
       <c r="Z35" s="12">
         <v>43924</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="6"/>
@@ -3382,7 +3447,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="9"/>
@@ -3409,7 +3474,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y36" s="12">
         <v>43918</v>
@@ -3417,7 +3482,9 @@
       <c r="Z36" s="12">
         <v>43924</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="6"/>
@@ -3425,11 +3492,11 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="9"/>
@@ -3456,7 +3523,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y37" s="12">
         <v>43918</v>
@@ -3464,7 +3531,9 @@
       <c r="Z37" s="12">
         <v>43924</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="6"/>
@@ -3474,7 +3543,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="9"/>
@@ -3501,7 +3570,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y38" s="12">
         <v>43918</v>
@@ -3509,7 +3578,9 @@
       <c r="Z38" s="12">
         <v>43924</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="6"/>
@@ -3519,7 +3590,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="9"/>
@@ -3546,7 +3617,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y39" s="12">
         <v>43918</v>
@@ -3554,7 +3625,9 @@
       <c r="Z39" s="12">
         <v>43924</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="6"/>
@@ -3564,7 +3637,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="9"/>
@@ -3591,7 +3664,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y40" s="12">
         <v>43918</v>
@@ -3599,7 +3672,9 @@
       <c r="Z40" s="12">
         <v>43924</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="6"/>
@@ -3609,7 +3684,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
@@ -3636,7 +3711,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y41" s="12">
         <v>43918</v>
@@ -3644,7 +3719,9 @@
       <c r="Z41" s="12">
         <v>43924</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="6"/>
@@ -3654,7 +3731,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
@@ -3681,7 +3758,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y42" s="12">
         <v>43918</v>
@@ -3689,7 +3766,9 @@
       <c r="Z42" s="12">
         <v>43924</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="6"/>
@@ -3697,11 +3776,11 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
@@ -3736,7 +3815,9 @@
       <c r="Z43" s="12">
         <v>43927</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="6"/>
@@ -3746,7 +3827,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="9"/>
@@ -3781,7 +3862,9 @@
       <c r="Z44" s="12">
         <v>43927</v>
       </c>
-      <c r="AA44" s="9"/>
+      <c r="AA44" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="6"/>
@@ -3791,7 +3874,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="9"/>
@@ -3826,7 +3909,9 @@
       <c r="Z45" s="12">
         <v>43927</v>
       </c>
-      <c r="AA45" s="9"/>
+      <c r="AA45" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="6"/>
@@ -3836,7 +3921,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="9"/>
@@ -3871,7 +3956,9 @@
       <c r="Z46" s="12">
         <v>43927</v>
       </c>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="6"/>
@@ -3881,7 +3968,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="9"/>
@@ -3916,7 +4003,9 @@
       <c r="Z47" s="12">
         <v>43927</v>
       </c>
-      <c r="AA47" s="9"/>
+      <c r="AA47" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="6"/>
@@ -3924,11 +4013,11 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="9"/>
@@ -3963,7 +4052,9 @@
       <c r="Z48" s="12">
         <v>43927</v>
       </c>
-      <c r="AA48" s="9"/>
+      <c r="AA48" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="6"/>
@@ -3973,7 +4064,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="9"/>
@@ -4008,7 +4099,9 @@
       <c r="Z49" s="12">
         <v>43927</v>
       </c>
-      <c r="AA49" s="9"/>
+      <c r="AA49" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="6"/>
@@ -4018,7 +4111,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="9"/>
@@ -4053,7 +4146,9 @@
       <c r="Z50" s="12">
         <v>43927</v>
       </c>
-      <c r="AA50" s="9"/>
+      <c r="AA50" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="6"/>
@@ -4063,7 +4158,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="9"/>
@@ -4098,7 +4193,9 @@
       <c r="Z51" s="12">
         <v>43927</v>
       </c>
-      <c r="AA51" s="9"/>
+      <c r="AA51" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="6"/>
@@ -4108,7 +4205,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="9"/>
@@ -4143,7 +4240,9 @@
       <c r="Z52" s="12">
         <v>43927</v>
       </c>
-      <c r="AA52" s="9"/>
+      <c r="AA52" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="6"/>
@@ -4153,7 +4252,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="9"/>
@@ -4188,21 +4287,23 @@
       <c r="Z53" s="12">
         <v>43927</v>
       </c>
-      <c r="AA53" s="9"/>
+      <c r="AA53" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="9"/>
@@ -4237,7 +4338,9 @@
       <c r="Z54" s="12">
         <v>43927</v>
       </c>
-      <c r="AA54" s="9"/>
+      <c r="AA54" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="6"/>
@@ -4247,7 +4350,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="9"/>
@@ -4282,7 +4385,9 @@
       <c r="Z55" s="12">
         <v>43927</v>
       </c>
-      <c r="AA55" s="9"/>
+      <c r="AA55" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="6"/>
@@ -4292,7 +4397,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="9"/>
@@ -4327,7 +4432,9 @@
       <c r="Z56" s="12">
         <v>43927</v>
       </c>
-      <c r="AA56" s="9"/>
+      <c r="AA56" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="6"/>
@@ -4337,7 +4444,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="9"/>
@@ -4372,7 +4479,9 @@
       <c r="Z57" s="12">
         <v>43927</v>
       </c>
-      <c r="AA57" s="9"/>
+      <c r="AA57" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="6"/>
@@ -4382,7 +4491,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="9"/>
@@ -4417,7 +4526,9 @@
       <c r="Z58" s="12">
         <v>43927</v>
       </c>
-      <c r="AA58" s="9"/>
+      <c r="AA58" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="6"/>
@@ -4427,7 +4538,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="9"/>
@@ -4462,7 +4573,9 @@
       <c r="Z59" s="12">
         <v>43927</v>
       </c>
-      <c r="AA59" s="9"/>
+      <c r="AA59" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="6"/>
@@ -4470,11 +4583,11 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="9"/>
@@ -4509,7 +4622,9 @@
       <c r="Z60" s="12">
         <v>43927</v>
       </c>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="6"/>
@@ -4519,7 +4634,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="9"/>
@@ -4554,7 +4669,9 @@
       <c r="Z61" s="12">
         <v>43927</v>
       </c>
-      <c r="AA61" s="9"/>
+      <c r="AA61" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="6"/>
@@ -4564,7 +4681,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="9"/>
@@ -4599,7 +4716,9 @@
       <c r="Z62" s="12">
         <v>43927</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="6"/>
@@ -4609,7 +4728,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="9"/>
@@ -4644,7 +4763,9 @@
       <c r="Z63" s="12">
         <v>43927</v>
       </c>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="6"/>
@@ -4654,7 +4775,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="9"/>
@@ -4689,7 +4810,9 @@
       <c r="Z64" s="12">
         <v>43927</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="6"/>
@@ -4699,7 +4822,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="9"/>
@@ -4734,7 +4857,9 @@
       <c r="Z65" s="12">
         <v>43927</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="6"/>
@@ -4742,11 +4867,11 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="9"/>
@@ -4773,7 +4898,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y66" s="12">
         <v>43922</v>
@@ -4781,7 +4906,9 @@
       <c r="Z66" s="12">
         <v>43928</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="6"/>
@@ -4791,7 +4918,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="9"/>
@@ -4818,7 +4945,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y67" s="12">
         <v>43922</v>
@@ -4826,7 +4953,9 @@
       <c r="Z67" s="12">
         <v>43928</v>
       </c>
-      <c r="AA67" s="9"/>
+      <c r="AA67" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="6"/>
@@ -4834,11 +4963,11 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="9"/>
@@ -4865,7 +4994,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y68" s="12">
         <v>43922</v>
@@ -4873,7 +5002,9 @@
       <c r="Z68" s="12">
         <v>43928</v>
       </c>
-      <c r="AA68" s="9"/>
+      <c r="AA68" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="6"/>
@@ -4883,7 +5014,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="9"/>
@@ -4910,7 +5041,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y69" s="12">
         <v>43922</v>
@@ -4918,7 +5049,9 @@
       <c r="Z69" s="12">
         <v>43928</v>
       </c>
-      <c r="AA69" s="9"/>
+      <c r="AA69" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="6"/>
@@ -4926,11 +5059,11 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="9"/>
@@ -4957,7 +5090,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y70" s="12">
         <v>43922</v>
@@ -4965,7 +5098,9 @@
       <c r="Z70" s="12">
         <v>43928</v>
       </c>
-      <c r="AA70" s="9"/>
+      <c r="AA70" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="6"/>
@@ -4975,7 +5110,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="9"/>
@@ -5002,7 +5137,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y71" s="12">
         <v>43922</v>
@@ -5010,25 +5145,27 @@
       <c r="Z71" s="12">
         <v>43928</v>
       </c>
-      <c r="AA71" s="9"/>
+      <c r="AA71" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J72" s="12">
         <v>43917</v>
@@ -5061,7 +5198,7 @@
       </c>
       <c r="W72" s="2"/>
       <c r="X72" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y72" s="12">
         <v>43922</v>
@@ -5079,11 +5216,11 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J73" s="12">
         <v>43917</v>
@@ -5116,7 +5253,7 @@
       </c>
       <c r="W73" s="2"/>
       <c r="X73" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y73" s="12">
         <v>43922</v>
@@ -5130,7 +5267,7 @@
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="9"/>
@@ -5138,7 +5275,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J74" s="12">
         <v>43917</v>
@@ -5171,7 +5308,7 @@
       </c>
       <c r="W74" s="2"/>
       <c r="X74" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y74" s="12">
         <v>43922</v>
@@ -5185,15 +5322,15 @@
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="9"/>
@@ -5224,7 +5361,7 @@
       </c>
       <c r="W75" s="2"/>
       <c r="X75" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y75" s="12">
         <v>43925</v>
@@ -5242,7 +5379,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="9"/>
@@ -5273,7 +5410,7 @@
       </c>
       <c r="W76" s="2"/>
       <c r="X76" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y76" s="12">
         <v>43925</v>
@@ -5291,7 +5428,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="9"/>
@@ -5322,7 +5459,7 @@
       </c>
       <c r="W77" s="2"/>
       <c r="X77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y77" s="12">
         <v>43925</v>
@@ -5340,7 +5477,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="9"/>
@@ -5371,7 +5508,7 @@
       </c>
       <c r="W78" s="2"/>
       <c r="X78" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y78" s="12">
         <v>43925</v>
@@ -5389,7 +5526,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
@@ -5420,7 +5557,7 @@
       </c>
       <c r="W79" s="2"/>
       <c r="X79" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y79" s="12">
         <v>43925</v>
@@ -5436,11 +5573,11 @@
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
       <c r="E80" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="9"/>
@@ -5471,7 +5608,7 @@
       </c>
       <c r="W80" s="2"/>
       <c r="X80" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y80" s="12">
         <v>43929</v>
@@ -5489,7 +5626,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="9"/>
@@ -5520,7 +5657,7 @@
       </c>
       <c r="W81" s="2"/>
       <c r="X81" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y81" s="12">
         <v>43929</v>
@@ -5538,7 +5675,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="9"/>
@@ -5569,7 +5706,7 @@
       </c>
       <c r="W82" s="2"/>
       <c r="X82" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y82" s="12">
         <v>43929</v>
@@ -5587,7 +5724,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="9"/>
@@ -5618,7 +5755,7 @@
       </c>
       <c r="W83" s="2"/>
       <c r="X83" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y83" s="12">
         <v>43929</v>
@@ -5636,7 +5773,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="9"/>
@@ -5667,7 +5804,7 @@
       </c>
       <c r="W84" s="2"/>
       <c r="X84" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y84" s="12">
         <v>43929</v>
@@ -5683,11 +5820,11 @@
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="9"/>
@@ -5710,10 +5847,10 @@
       <c r="V85" s="23"/>
       <c r="W85" s="24"/>
       <c r="X85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
       <c r="AA85" s="9"/>
     </row>
     <row r="86" spans="1:27">
@@ -5724,7 +5861,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="18"/>
       <c r="G86" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="9"/>
@@ -5747,10 +5884,10 @@
       <c r="V86" s="23"/>
       <c r="W86" s="24"/>
       <c r="X86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
       <c r="AA86" s="9"/>
     </row>
     <row r="87" spans="1:27">
@@ -5761,7 +5898,7 @@
       <c r="E87" s="19"/>
       <c r="F87" s="20"/>
       <c r="G87" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="9"/>
@@ -5784,10 +5921,10 @@
       <c r="V87" s="23"/>
       <c r="W87" s="24"/>
       <c r="X87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
       <c r="AA87" s="9"/>
     </row>
     <row r="88" spans="1:27">
@@ -5796,11 +5933,11 @@
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="9"/>
@@ -5823,10 +5960,10 @@
       <c r="V88" s="23"/>
       <c r="W88" s="24"/>
       <c r="X88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y88" s="30"/>
-      <c r="Z88" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
       <c r="AA88" s="9"/>
     </row>
     <row r="89" spans="1:27">
@@ -5837,7 +5974,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
       <c r="G89" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="9"/>
@@ -5860,10 +5997,10 @@
       <c r="V89" s="23"/>
       <c r="W89" s="24"/>
       <c r="X89" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
       <c r="AA89" s="9"/>
     </row>
     <row r="90" spans="1:27">
@@ -5874,7 +6011,7 @@
       <c r="E90" s="19"/>
       <c r="F90" s="20"/>
       <c r="G90" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="9"/>
@@ -5897,31 +6034,31 @@
       <c r="V90" s="23"/>
       <c r="W90" s="24"/>
       <c r="X90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
       <c r="AA90" s="9"/>
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J91" s="12">
         <v>43914</v>
@@ -5938,7 +6075,7 @@
       <c r="P91" s="25"/>
       <c r="Q91" s="26"/>
       <c r="R91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -5948,14 +6085,14 @@
       <c r="X91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y91" s="31">
+      <c r="Y91" s="30">
         <v>43915</v>
       </c>
-      <c r="Z91" s="31">
+      <c r="Z91" s="30">
         <v>43921</v>
       </c>
       <c r="AA91" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -5966,11 +6103,11 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J92" s="12">
         <v>43915</v>
@@ -5979,7 +6116,7 @@
         <v>43915</v>
       </c>
       <c r="L92" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M92" s="27"/>
       <c r="N92" s="25"/>
@@ -5987,7 +6124,7 @@
       <c r="P92" s="25"/>
       <c r="Q92" s="26"/>
       <c r="R92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
@@ -5997,14 +6134,14 @@
       <c r="X92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y92" s="31">
+      <c r="Y92" s="30">
         <v>43915</v>
       </c>
-      <c r="Z92" s="31">
+      <c r="Z92" s="30">
         <v>43921</v>
       </c>
       <c r="AA92" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -6015,11 +6152,11 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J93" s="12">
         <v>43915</v>
@@ -6036,7 +6173,7 @@
       <c r="P93" s="25"/>
       <c r="Q93" s="26"/>
       <c r="R93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -6046,14 +6183,14 @@
       <c r="X93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y93" s="31">
+      <c r="Y93" s="30">
         <v>43915</v>
       </c>
-      <c r="Z93" s="31">
+      <c r="Z93" s="30">
         <v>43921</v>
       </c>
       <c r="AA93" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -6064,11 +6201,11 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J94" s="12">
         <v>43914</v>
@@ -6085,7 +6222,7 @@
       <c r="P94" s="25"/>
       <c r="Q94" s="26"/>
       <c r="R94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
@@ -6095,14 +6232,14 @@
       <c r="X94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y94" s="31">
+      <c r="Y94" s="30">
         <v>43915</v>
       </c>
-      <c r="Z94" s="31">
+      <c r="Z94" s="30">
         <v>43921</v>
       </c>
       <c r="AA94" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -6113,11 +6250,11 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J95" s="12">
         <v>43915</v>
@@ -6134,7 +6271,7 @@
       <c r="P95" s="25"/>
       <c r="Q95" s="26"/>
       <c r="R95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
@@ -6144,14 +6281,14 @@
       <c r="X95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y95" s="31">
+      <c r="Y95" s="30">
         <v>43915</v>
       </c>
-      <c r="Z95" s="31">
+      <c r="Z95" s="30">
         <v>43921</v>
       </c>
       <c r="AA95" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -6162,11 +6299,11 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J96" s="12">
         <v>43914</v>
@@ -6175,7 +6312,7 @@
         <v>43914</v>
       </c>
       <c r="L96" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M96" s="27"/>
       <c r="N96" s="25"/>
@@ -6183,7 +6320,7 @@
       <c r="P96" s="25"/>
       <c r="Q96" s="26"/>
       <c r="R96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -6193,14 +6330,14 @@
       <c r="X96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y96" s="31">
+      <c r="Y96" s="30">
         <v>43915</v>
       </c>
-      <c r="Z96" s="31">
+      <c r="Z96" s="30">
         <v>43921</v>
       </c>
       <c r="AA96" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -6211,11 +6348,11 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J97" s="12">
         <v>43915</v>
@@ -6224,7 +6361,7 @@
         <v>43916</v>
       </c>
       <c r="L97" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
@@ -6232,7 +6369,7 @@
       <c r="P97" s="25"/>
       <c r="Q97" s="26"/>
       <c r="R97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -6242,14 +6379,14 @@
       <c r="X97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y97" s="31">
+      <c r="Y97" s="30">
         <v>43915</v>
       </c>
-      <c r="Z97" s="31">
+      <c r="Z97" s="30">
         <v>43921</v>
       </c>
       <c r="AA97" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -6260,11 +6397,11 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J98" s="12">
         <v>43915</v>
@@ -6273,7 +6410,7 @@
         <v>43915</v>
       </c>
       <c r="L98" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M98" s="27"/>
       <c r="N98" s="25"/>
@@ -6281,7 +6418,7 @@
       <c r="P98" s="25"/>
       <c r="Q98" s="26"/>
       <c r="R98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6291,14 +6428,14 @@
       <c r="X98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y98" s="31">
+      <c r="Y98" s="30">
         <v>43915</v>
       </c>
-      <c r="Z98" s="31">
+      <c r="Z98" s="30">
         <v>43921</v>
       </c>
       <c r="AA98" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -6307,15 +6444,15 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J99" s="28">
         <v>43915</v>
@@ -6332,7 +6469,7 @@
       <c r="P99" s="25"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6342,14 +6479,14 @@
       <c r="X99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y99" s="31">
+      <c r="Y99" s="30">
         <v>43915</v>
       </c>
-      <c r="Z99" s="31">
+      <c r="Z99" s="30">
         <v>43921</v>
       </c>
       <c r="AA99" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -6360,11 +6497,11 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J100" s="28">
         <v>43915</v>
@@ -6373,7 +6510,7 @@
         <v>43915</v>
       </c>
       <c r="L100" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M100" s="27"/>
       <c r="N100" s="25"/>
@@ -6381,7 +6518,7 @@
       <c r="P100" s="25"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6391,14 +6528,14 @@
       <c r="X100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y100" s="31">
+      <c r="Y100" s="30">
         <v>43915</v>
       </c>
-      <c r="Z100" s="31">
+      <c r="Z100" s="30">
         <v>43921</v>
       </c>
       <c r="AA100" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -6409,11 +6546,11 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J101" s="28">
         <v>43915</v>
@@ -6422,7 +6559,7 @@
         <v>43915</v>
       </c>
       <c r="L101" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M101" s="27"/>
       <c r="N101" s="25"/>
@@ -6430,7 +6567,7 @@
       <c r="P101" s="25"/>
       <c r="Q101" s="26"/>
       <c r="R101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6440,14 +6577,14 @@
       <c r="X101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y101" s="31">
+      <c r="Y101" s="30">
         <v>43915</v>
       </c>
-      <c r="Z101" s="31">
+      <c r="Z101" s="30">
         <v>43921</v>
       </c>
       <c r="AA101" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -6458,11 +6595,11 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J102" s="28">
         <v>43915</v>
@@ -6471,7 +6608,7 @@
         <v>43915</v>
       </c>
       <c r="L102" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M102" s="27"/>
       <c r="N102" s="25"/>
@@ -6479,7 +6616,7 @@
       <c r="P102" s="25"/>
       <c r="Q102" s="26"/>
       <c r="R102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6489,14 +6626,14 @@
       <c r="X102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y102" s="31">
+      <c r="Y102" s="30">
         <v>43915</v>
       </c>
-      <c r="Z102" s="31">
+      <c r="Z102" s="30">
         <v>43921</v>
       </c>
       <c r="AA102" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -6507,11 +6644,11 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J103" s="28">
         <v>43915</v>
@@ -6520,7 +6657,7 @@
         <v>43915</v>
       </c>
       <c r="L103" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M103" s="27"/>
       <c r="N103" s="25"/>
@@ -6528,7 +6665,7 @@
       <c r="P103" s="25"/>
       <c r="Q103" s="26"/>
       <c r="R103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6538,33 +6675,33 @@
       <c r="X103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y103" s="31">
+      <c r="Y103" s="30">
         <v>43915</v>
       </c>
-      <c r="Z103" s="31">
+      <c r="Z103" s="30">
         <v>43921</v>
       </c>
       <c r="AA103" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J104" s="28">
         <v>43915</v>
@@ -6573,7 +6710,7 @@
         <v>43915</v>
       </c>
       <c r="L104" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M104" s="29"/>
       <c r="N104" s="11"/>
@@ -6581,7 +6718,7 @@
       <c r="P104" s="11"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="11">
@@ -6593,12 +6730,12 @@
       </c>
       <c r="W104" s="2"/>
       <c r="X104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y104" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y104" s="30">
         <v>43920</v>
       </c>
-      <c r="Z104" s="31">
+      <c r="Z104" s="30">
         <v>43921</v>
       </c>
       <c r="AA104" s="9"/>
@@ -6611,11 +6748,11 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J105" s="28">
         <v>43915</v>
@@ -6624,7 +6761,7 @@
         <v>43915</v>
       </c>
       <c r="L105" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M105" s="29"/>
       <c r="N105" s="11"/>
@@ -6632,7 +6769,7 @@
       <c r="P105" s="11"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="11">
@@ -6644,12 +6781,12 @@
       </c>
       <c r="W105" s="2"/>
       <c r="X105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y105" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y105" s="30">
         <v>43920</v>
       </c>
-      <c r="Z105" s="31">
+      <c r="Z105" s="30">
         <v>43921</v>
       </c>
       <c r="AA105" s="9"/>
@@ -6662,11 +6799,11 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J106" s="28">
         <v>43915</v>
@@ -6675,7 +6812,7 @@
         <v>43915</v>
       </c>
       <c r="L106" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M106" s="29"/>
       <c r="N106" s="11"/>
@@ -6683,7 +6820,7 @@
       <c r="P106" s="11"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="11">
@@ -6695,7 +6832,7 @@
       </c>
       <c r="W106" s="2"/>
       <c r="X106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y106" s="12">
         <v>43922</v>
@@ -6713,11 +6850,11 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J107" s="28">
         <v>43915</v>
@@ -6726,7 +6863,7 @@
         <v>43915</v>
       </c>
       <c r="L107" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M107" s="29"/>
       <c r="N107" s="11"/>
@@ -6734,7 +6871,7 @@
       <c r="P107" s="11"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="11">
@@ -6746,7 +6883,7 @@
       </c>
       <c r="W107" s="2"/>
       <c r="X107" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y107" s="12">
         <v>43922</v>
@@ -6762,15 +6899,15 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J108" s="28">
         <v>43916</v>
@@ -6779,7 +6916,7 @@
         <v>43916</v>
       </c>
       <c r="L108" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M108" s="27"/>
       <c r="N108" s="11">
@@ -6791,7 +6928,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="11">
@@ -6803,7 +6940,7 @@
       </c>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y108" s="12">
         <v>43924</v>
@@ -6819,15 +6956,15 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J109" s="28">
         <v>43916</v>
@@ -6836,7 +6973,7 @@
         <v>43916</v>
       </c>
       <c r="L109" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M109" s="27"/>
       <c r="N109" s="11">
@@ -6848,7 +6985,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="11">
@@ -6860,7 +6997,7 @@
       </c>
       <c r="W109" s="2"/>
       <c r="X109" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y109" s="12">
         <v>43924</v>
@@ -6878,11 +7015,11 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J110" s="28">
         <v>43916</v>
@@ -6891,7 +7028,7 @@
         <v>43916</v>
       </c>
       <c r="L110" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M110" s="29"/>
       <c r="N110" s="11"/>
@@ -6899,7 +7036,7 @@
       <c r="P110" s="11"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="11">
@@ -6911,7 +7048,7 @@
       </c>
       <c r="W110" s="2"/>
       <c r="X110" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y110" s="12">
         <v>43924</v>
@@ -6929,11 +7066,11 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J111" s="28">
         <v>43916</v>
@@ -6942,7 +7079,7 @@
         <v>43916</v>
       </c>
       <c r="L111" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M111" s="27"/>
       <c r="N111" s="11">
@@ -6954,7 +7091,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="11">
@@ -6966,7 +7103,7 @@
       </c>
       <c r="W111" s="2"/>
       <c r="X111" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y111" s="12">
         <v>43924</v>
@@ -6982,15 +7119,15 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J112" s="28">
         <v>43916</v>
@@ -6999,7 +7136,7 @@
         <v>43916</v>
       </c>
       <c r="L112" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M112" s="27"/>
       <c r="N112" s="11">
@@ -7011,7 +7148,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="11">
@@ -7023,7 +7160,7 @@
       </c>
       <c r="W112" s="2"/>
       <c r="X112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y112" s="12">
         <v>43927</v>
@@ -7032,7 +7169,7 @@
         <v>43929</v>
       </c>
       <c r="AA112" s="9" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -7047,7 +7184,7 @@
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J113" s="28">
         <v>43916</v>
@@ -7056,7 +7193,7 @@
         <v>43916</v>
       </c>
       <c r="L113" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M113" s="27"/>
       <c r="N113" s="11">
@@ -7068,7 +7205,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="11">
@@ -7080,7 +7217,7 @@
       </c>
       <c r="W113" s="2"/>
       <c r="X113" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y113" s="12">
         <v>43927</v>
@@ -7089,7 +7226,7 @@
         <v>43929</v>
       </c>
       <c r="AA113" s="9" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -7104,7 +7241,7 @@
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J114" s="28">
         <v>43916</v>
@@ -7113,7 +7250,7 @@
         <v>43916</v>
       </c>
       <c r="L114" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M114" s="27"/>
       <c r="N114" s="11">
@@ -7125,7 +7262,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="11">
@@ -7137,7 +7274,7 @@
       </c>
       <c r="W114" s="2"/>
       <c r="X114" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y114" s="12">
         <v>43927</v>
@@ -7146,7 +7283,7 @@
         <v>43930</v>
       </c>
       <c r="AA114" s="9" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -7161,7 +7298,7 @@
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J115" s="28">
         <v>43916</v>
@@ -7170,7 +7307,7 @@
         <v>43916</v>
       </c>
       <c r="L115" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M115" s="27"/>
       <c r="N115" s="11">
@@ -7182,7 +7319,7 @@
       </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="11">
@@ -7194,7 +7331,7 @@
       </c>
       <c r="W115" s="2"/>
       <c r="X115" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y115" s="12">
         <v>43927</v>
@@ -7203,7 +7340,7 @@
         <v>43930</v>
       </c>
       <c r="AA115" s="9" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -7212,7 +7349,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
@@ -7220,7 +7357,7 @@
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J116" s="28">
         <v>43917</v>
@@ -7229,7 +7366,7 @@
         <v>43917</v>
       </c>
       <c r="L116" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M116" s="27"/>
       <c r="N116" s="11">
@@ -7241,7 +7378,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="11">
@@ -7253,7 +7390,7 @@
       </c>
       <c r="W116" s="2"/>
       <c r="X116" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y116" s="12">
         <v>43930</v>
@@ -7275,7 +7412,7 @@
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J117" s="28">
         <v>43917</v>
@@ -7284,7 +7421,7 @@
         <v>43917</v>
       </c>
       <c r="L117" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M117" s="27"/>
       <c r="N117" s="11">
@@ -7296,7 +7433,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="11">
@@ -7308,7 +7445,7 @@
       </c>
       <c r="W117" s="2"/>
       <c r="X117" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y117" s="12">
         <v>43930</v>
@@ -7330,7 +7467,7 @@
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J118" s="28">
         <v>43917</v>
@@ -7339,7 +7476,7 @@
         <v>43917</v>
       </c>
       <c r="L118" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M118" s="27"/>
       <c r="N118" s="11">
@@ -7351,7 +7488,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S118" s="2"/>
       <c r="T118" s="11">
@@ -7363,7 +7500,7 @@
       </c>
       <c r="W118" s="2"/>
       <c r="X118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y118" s="12">
         <v>43930</v>
@@ -7387,7 +7524,7 @@
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J119" s="28">
         <v>43917</v>
@@ -7396,7 +7533,7 @@
         <v>43917</v>
       </c>
       <c r="L119" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M119" s="27"/>
       <c r="N119" s="11">
@@ -7408,7 +7545,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S119" s="2"/>
       <c r="T119" s="11">
@@ -7422,10 +7559,10 @@
       <c r="X119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y119" s="31">
+      <c r="Y119" s="30">
         <v>43934</v>
       </c>
-      <c r="Z119" s="31">
+      <c r="Z119" s="30">
         <v>43935</v>
       </c>
       <c r="AA119" s="9"/>
@@ -7442,7 +7579,7 @@
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J120" s="28">
         <v>43917</v>
@@ -7451,7 +7588,7 @@
         <v>43917</v>
       </c>
       <c r="L120" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M120" s="27"/>
       <c r="N120" s="11">
@@ -7463,7 +7600,7 @@
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="11">
@@ -7477,10 +7614,10 @@
       <c r="X120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y120" s="31">
+      <c r="Y120" s="30">
         <v>43934</v>
       </c>
-      <c r="Z120" s="31">
+      <c r="Z120" s="30">
         <v>43935</v>
       </c>
       <c r="AA120" s="9"/>
@@ -7497,7 +7634,7 @@
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J121" s="28">
         <v>43917</v>
@@ -7506,7 +7643,7 @@
         <v>43917</v>
       </c>
       <c r="L121" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M121" s="27"/>
       <c r="N121" s="11">
@@ -7518,7 +7655,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="11">
@@ -7532,10 +7669,10 @@
       <c r="X121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y121" s="31">
+      <c r="Y121" s="30">
         <v>43934</v>
       </c>
-      <c r="Z121" s="31">
+      <c r="Z121" s="30">
         <v>43935</v>
       </c>
       <c r="AA121" s="9"/>
@@ -7552,7 +7689,7 @@
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J122" s="28">
         <v>43917</v>
@@ -7561,7 +7698,7 @@
         <v>43917</v>
       </c>
       <c r="L122" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M122" s="27"/>
       <c r="N122" s="11">
@@ -7573,7 +7710,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="11">
@@ -7587,10 +7724,10 @@
       <c r="X122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y122" s="31">
+      <c r="Y122" s="30">
         <v>43936</v>
       </c>
-      <c r="Z122" s="31">
+      <c r="Z122" s="30">
         <v>43937</v>
       </c>
       <c r="AA122" s="9"/>
@@ -7607,7 +7744,7 @@
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J123" s="28">
         <v>43917</v>
@@ -7616,7 +7753,7 @@
         <v>43917</v>
       </c>
       <c r="L123" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M123" s="27"/>
       <c r="N123" s="11">
@@ -7628,7 +7765,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="11">
@@ -7642,10 +7779,10 @@
       <c r="X123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y123" s="31">
+      <c r="Y123" s="30">
         <v>43936</v>
       </c>
-      <c r="Z123" s="31">
+      <c r="Z123" s="30">
         <v>43937</v>
       </c>
       <c r="AA123" s="9"/>
@@ -7662,7 +7799,7 @@
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J124" s="28">
         <v>43917</v>
@@ -7671,7 +7808,7 @@
         <v>43917</v>
       </c>
       <c r="L124" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M124" s="27"/>
       <c r="N124" s="11">
@@ -7683,7 +7820,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="11">
@@ -7697,10 +7834,10 @@
       <c r="X124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y124" s="31">
+      <c r="Y124" s="30">
         <v>43936</v>
       </c>
-      <c r="Z124" s="31">
+      <c r="Z124" s="30">
         <v>43937</v>
       </c>
       <c r="AA124" s="9"/>
@@ -7717,7 +7854,7 @@
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J125" s="28">
         <v>43917</v>
@@ -7726,7 +7863,7 @@
         <v>43917</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="11"/>
@@ -7734,7 +7871,7 @@
       <c r="P125" s="11"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="11">
@@ -7748,13 +7885,13 @@
       <c r="X125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y125" s="31">
+      <c r="Y125" s="30">
         <v>43937</v>
       </c>
-      <c r="Z125" s="32">
+      <c r="Z125" s="31">
         <v>43938</v>
       </c>
-      <c r="AA125" s="32"/>
+      <c r="AA125" s="31"/>
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="5"/>
@@ -7770,7 +7907,7 @@
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J126" s="12">
         <v>43916</v>
@@ -7779,7 +7916,7 @@
         <v>43916</v>
       </c>
       <c r="L126" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M126" s="27"/>
       <c r="N126" s="11">
@@ -7791,7 +7928,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="11">
@@ -7805,10 +7942,10 @@
       <c r="X126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y126" s="31">
+      <c r="Y126" s="30">
         <v>43941</v>
       </c>
-      <c r="Z126" s="31">
+      <c r="Z126" s="30">
         <v>43944</v>
       </c>
       <c r="AA126" s="9"/>
@@ -7825,7 +7962,7 @@
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J127" s="12">
         <v>43916</v>
@@ -7834,7 +7971,7 @@
         <v>43916</v>
       </c>
       <c r="L127" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M127" s="27"/>
       <c r="N127" s="11">
@@ -7846,7 +7983,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="11">
@@ -7860,10 +7997,10 @@
       <c r="X127" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y127" s="31">
+      <c r="Y127" s="30">
         <v>43941</v>
       </c>
-      <c r="Z127" s="31">
+      <c r="Z127" s="30">
         <v>43944</v>
       </c>
       <c r="AA127" s="9"/>
@@ -7880,7 +8017,7 @@
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J128" s="12">
         <v>43916</v>
@@ -7889,7 +8026,7 @@
         <v>43916</v>
       </c>
       <c r="L128" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M128" s="27"/>
       <c r="N128" s="11">
@@ -7901,7 +8038,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S128" s="2"/>
       <c r="T128" s="11">
@@ -7915,10 +8052,10 @@
       <c r="X128" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y128" s="31">
+      <c r="Y128" s="30">
         <v>43941</v>
       </c>
-      <c r="Z128" s="31">
+      <c r="Z128" s="30">
         <v>43944</v>
       </c>
       <c r="AA128" s="9"/>
@@ -7935,7 +8072,7 @@
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J129" s="12">
         <v>43916</v>
@@ -7944,7 +8081,7 @@
         <v>43916</v>
       </c>
       <c r="L129" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M129" s="27"/>
       <c r="N129" s="11">
@@ -7956,7 +8093,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="11">
@@ -7970,10 +8107,10 @@
       <c r="X129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y129" s="31">
+      <c r="Y129" s="30">
         <v>43942</v>
       </c>
-      <c r="Z129" s="31">
+      <c r="Z129" s="30">
         <v>43945</v>
       </c>
       <c r="AA129" s="9"/>
@@ -7990,7 +8127,7 @@
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J130" s="12">
         <v>43914</v>
@@ -8011,7 +8148,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="11">
@@ -8023,16 +8160,16 @@
       </c>
       <c r="W130" s="2"/>
       <c r="X130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y130" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y130" s="30">
         <v>43944</v>
       </c>
-      <c r="Z130" s="31">
+      <c r="Z130" s="30">
         <v>43948</v>
       </c>
       <c r="AA130" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -8047,7 +8184,7 @@
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J131" s="12">
         <v>43914</v>
@@ -8056,7 +8193,7 @@
         <v>43914</v>
       </c>
       <c r="L131" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M131" s="27"/>
       <c r="N131" s="11">
@@ -8068,7 +8205,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="11">
@@ -8080,16 +8217,16 @@
       </c>
       <c r="W131" s="2"/>
       <c r="X131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y131" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y131" s="30">
         <v>43944</v>
       </c>
-      <c r="Z131" s="31">
+      <c r="Z131" s="30">
         <v>43948</v>
       </c>
       <c r="AA131" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -8104,7 +8241,7 @@
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J132" s="12">
         <v>43914</v>
@@ -8113,7 +8250,7 @@
         <v>43914</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="11">
@@ -8125,7 +8262,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="11">
@@ -8137,16 +8274,16 @@
       </c>
       <c r="W132" s="2"/>
       <c r="X132" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y132" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y132" s="30">
         <v>43944</v>
       </c>
-      <c r="Z132" s="31">
+      <c r="Z132" s="30">
         <v>43948</v>
       </c>
       <c r="AA132" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -8161,7 +8298,7 @@
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J133" s="12">
         <v>43914</v>
@@ -8170,7 +8307,7 @@
         <v>43914</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="11">
@@ -8182,7 +8319,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="11">
@@ -8194,16 +8331,16 @@
       </c>
       <c r="W133" s="2"/>
       <c r="X133" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y133" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y133" s="30">
         <v>43944</v>
       </c>
-      <c r="Z133" s="31">
+      <c r="Z133" s="30">
         <v>43948</v>
       </c>
       <c r="AA133" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -8218,7 +8355,7 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J134" s="12">
         <v>43914</v>
@@ -8227,7 +8364,7 @@
         <v>43914</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="11">
@@ -8239,7 +8376,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="11">
@@ -8251,16 +8388,16 @@
       </c>
       <c r="W134" s="2"/>
       <c r="X134" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y134" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y134" s="30">
         <v>43948</v>
       </c>
-      <c r="Z134" s="31">
+      <c r="Z134" s="30">
         <v>43951</v>
       </c>
       <c r="AA134" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -8278,7 +8415,7 @@
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M135" s="27"/>
       <c r="N135" s="11">
@@ -8290,7 +8427,7 @@
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="11">
@@ -8302,12 +8439,12 @@
       </c>
       <c r="W135" s="2"/>
       <c r="X135" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y135" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y135" s="30">
         <v>43948</v>
       </c>
-      <c r="Z135" s="31">
+      <c r="Z135" s="30">
         <v>43951</v>
       </c>
       <c r="AA135" s="9"/>
@@ -8339,7 +8476,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="11">
@@ -8351,273 +8488,273 @@
       </c>
       <c r="W136" s="2"/>
       <c r="X136" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y136" s="31">
+        <v>46</v>
+      </c>
+      <c r="Y136" s="30">
         <v>43948</v>
       </c>
-      <c r="Z136" s="31">
+      <c r="Z136" s="30">
         <v>43951</v>
       </c>
       <c r="AA136" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="7:8">
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
     </row>
     <row r="138" spans="7:8">
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
     </row>
     <row r="139" spans="7:8">
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="140" spans="7:8">
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
     </row>
     <row r="141" spans="7:8">
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
     </row>
     <row r="142" spans="7:8">
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
     </row>
     <row r="143" spans="7:8">
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
     </row>
     <row r="144" spans="7:8">
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
     </row>
     <row r="145" spans="7:8">
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
     </row>
     <row r="146" spans="7:8">
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
     </row>
     <row r="147" spans="7:8">
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
     </row>
     <row r="148" spans="7:8">
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
     </row>
     <row r="149" spans="7:8">
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
     </row>
     <row r="150" spans="7:8">
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
     </row>
     <row r="151" spans="7:8">
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
     </row>
     <row r="152" spans="7:8">
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
     </row>
     <row r="153" spans="7:8">
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
     </row>
     <row r="154" spans="7:8">
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
     </row>
     <row r="155" spans="7:8">
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
     </row>
     <row r="156" spans="7:8">
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
     </row>
     <row r="157" spans="7:8">
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
     </row>
     <row r="158" spans="7:8">
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
     </row>
     <row r="159" spans="7:8">
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
     </row>
     <row r="160" spans="7:8">
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
     </row>
     <row r="161" spans="7:8">
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
     </row>
     <row r="162" spans="7:8">
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
     </row>
     <row r="163" spans="7:8">
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
     </row>
     <row r="164" spans="7:8">
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
     </row>
     <row r="165" spans="7:8">
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
     </row>
     <row r="166" spans="7:8">
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
     </row>
     <row r="167" spans="7:8">
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
     </row>
     <row r="168" spans="7:8">
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
     </row>
     <row r="169" spans="7:8">
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
     </row>
     <row r="170" spans="7:8">
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
     </row>
     <row r="171" spans="7:8">
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
     </row>
     <row r="172" spans="7:8">
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
     </row>
     <row r="173" spans="7:8">
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
     </row>
     <row r="174" spans="7:8">
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
     </row>
     <row r="175" spans="7:8">
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
     </row>
     <row r="176" spans="7:8">
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
     </row>
     <row r="177" spans="7:8">
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
     </row>
     <row r="178" spans="7:8">
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
     </row>
     <row r="179" spans="7:8">
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
     </row>
     <row r="180" spans="7:8">
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
     </row>
     <row r="181" spans="7:8">
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
     </row>
     <row r="182" spans="7:8">
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
     </row>
     <row r="183" spans="7:8">
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
     </row>
     <row r="184" spans="7:8">
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
     </row>
     <row r="185" spans="7:8">
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
     </row>
     <row r="186" spans="7:8">
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
     </row>
     <row r="187" spans="7:8">
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
     </row>
     <row r="188" spans="7:8">
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
     </row>
     <row r="189" spans="7:8">
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
     </row>
     <row r="190" spans="7:8">
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
     </row>
     <row r="192" spans="7:8">
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
     </row>
     <row r="193" spans="7:8">
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
     </row>
     <row r="194" spans="7:8">
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
     </row>
     <row r="195" spans="7:8">
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
     </row>
     <row r="196" spans="7:8">
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
     </row>
     <row r="197" spans="7:8">
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
     </row>
     <row r="198" spans="7:8">
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
     </row>
     <row r="199" spans="7:8">
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
     </row>
     <row r="200" spans="7:8">
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1059">
@@ -9682,7 +9819,7 @@
     <mergeCell ref="A2:B90"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA85 AA86 AA87 AA88 AA89 AA90 AA1:AA84 AA91:AA103 AA112:AA115 AA130:AA136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA115 AA130:AA136">
       <formula1>"Ui开始,UI结束,后端开始,后端完成,前端开始,前端完成,测试开始,测试完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="188">
   <si>
     <t>入口</t>
   </si>
@@ -586,8 +586,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -633,9 +633,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,8 +686,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +696,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,81 +762,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -778,7 +778,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +862,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,109 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,37 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,6 +1070,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1084,37 +1099,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,17 +1147,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,130 +1186,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="AA59" sqref="AA59:AA65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124:H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7398,7 +7398,9 @@
       <c r="Z116" s="12">
         <v>43931</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="5"/>
@@ -7453,7 +7455,9 @@
       <c r="Z117" s="12">
         <v>43931</v>
       </c>
-      <c r="AA117" s="9"/>
+      <c r="AA117" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="5"/>
@@ -7508,7 +7512,9 @@
       <c r="Z118" s="12">
         <v>43931</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="119" spans="1:27">
       <c r="A119" s="5"/>
@@ -7565,7 +7571,9 @@
       <c r="Z119" s="30">
         <v>43935</v>
       </c>
-      <c r="AA119" s="9"/>
+      <c r="AA119" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="5"/>
@@ -9819,7 +9827,7 @@
     <mergeCell ref="A2:B90"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA115 AA130:AA136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA114 AA115:AA119 AA130:AA136">
       <formula1>"Ui开始,UI结束,后端开始,后端完成,前端开始,前端完成,测试开始,测试完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="188">
   <si>
     <t>入口</t>
   </si>
@@ -633,8 +633,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,76 +687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,11 +711,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -772,25 +772,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,43 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,21 +1084,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,7 +1102,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1137,35 +1166,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,118 +1189,118 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,10 +1309,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:AA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124:H124"/>
+      <selection activeCell="G120" sqref="G120:H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7628,7 +7628,9 @@
       <c r="Z120" s="30">
         <v>43935</v>
       </c>
-      <c r="AA120" s="9"/>
+      <c r="AA120" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="5"/>
@@ -7683,7 +7685,9 @@
       <c r="Z121" s="30">
         <v>43935</v>
       </c>
-      <c r="AA121" s="9"/>
+      <c r="AA121" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="5"/>
@@ -7738,7 +7742,9 @@
       <c r="Z122" s="30">
         <v>43937</v>
       </c>
-      <c r="AA122" s="9"/>
+      <c r="AA122" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="5"/>
@@ -7793,7 +7799,9 @@
       <c r="Z123" s="30">
         <v>43937</v>
       </c>
-      <c r="AA123" s="9"/>
+      <c r="AA123" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="124" spans="1:27">
       <c r="A124" s="5"/>
@@ -9827,7 +9835,7 @@
     <mergeCell ref="A2:B90"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA114 AA115:AA119 AA130:AA136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA114 AA115:AA118 AA119:AA123 AA130:AA136">
       <formula1>"Ui开始,UI结束,后端开始,后端完成,前端开始,前端完成,测试开始,测试完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/智工开发计划.xlsx
+++ b/智工开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="204">
   <si>
     <t>入口</t>
   </si>
@@ -70,496 +70,544 @@
     <t>王婷</t>
   </si>
   <si>
+    <t>测试开始</t>
+  </si>
+  <si>
+    <t>添加行业类型</t>
+  </si>
+  <si>
+    <t>删除行业类型</t>
+  </si>
+  <si>
+    <t>批量删除行业类型</t>
+  </si>
+  <si>
+    <t>修改行业类型</t>
+  </si>
+  <si>
+    <t>任务类型管理</t>
+  </si>
+  <si>
+    <t>任务类型分页查询+模糊查询</t>
+  </si>
+  <si>
+    <t>修改任务类型</t>
+  </si>
+  <si>
+    <t>删除任务类型</t>
+  </si>
+  <si>
+    <t>批量删除任务类型</t>
+  </si>
+  <si>
+    <t>添加任务类型</t>
+  </si>
+  <si>
+    <t>校验任务编码唯一</t>
+  </si>
+  <si>
+    <t>查询任务编码枚举</t>
+  </si>
+  <si>
+    <t>任务标签管理</t>
+  </si>
+  <si>
+    <t>任务标签分页查询+模糊查询</t>
+  </si>
+  <si>
+    <t>删除任务标签</t>
+  </si>
+  <si>
+    <t>批量删除任务标签</t>
+  </si>
+  <si>
+    <t>修改任务标签</t>
+  </si>
+  <si>
+    <t>增加任务标签</t>
+  </si>
+  <si>
+    <t>任务分页查询+模糊查询</t>
+  </si>
+  <si>
+    <t>查看任务详情</t>
+  </si>
+  <si>
+    <t>审核任务</t>
+  </si>
+  <si>
+    <t>任务订单管理</t>
+  </si>
+  <si>
+    <t>任务订单列表查询+模糊查询</t>
+  </si>
+  <si>
+    <t>查看订单详情</t>
+  </si>
+  <si>
+    <t>内容管理</t>
+  </si>
+  <si>
+    <t>消息模板管理</t>
+  </si>
+  <si>
+    <t>消息模板分页查询+模糊查询+消息类型+业务编码查询</t>
+  </si>
+  <si>
+    <t>党开鑫</t>
+  </si>
+  <si>
+    <t>添加消息模板（注意:先查询消息类型枚举+业务编码枚举）</t>
+  </si>
+  <si>
+    <t>编辑消息模板</t>
+  </si>
+  <si>
+    <t>删除消息模板</t>
+  </si>
+  <si>
+    <t>批量删除消息模板</t>
+  </si>
+  <si>
+    <t>校验同类型下业务编码唯一</t>
+  </si>
+  <si>
+    <t>消息日志管理</t>
+  </si>
+  <si>
+    <t>消息日志分页查询+模糊查询+消息类型+业务编码查询（注：列表数据类型、编码通过枚举渲染）</t>
+  </si>
+  <si>
+    <t>删除消息日志</t>
+  </si>
+  <si>
+    <t>广告位管理</t>
+  </si>
+  <si>
+    <t>增加广告位（注：校验广告位编码唯一）</t>
+  </si>
+  <si>
+    <t>修改广告位（注：校验广告位编码唯一）</t>
+  </si>
+  <si>
+    <t>删除广告位（注：已有广告不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除广告位（注：已有广告不允许删除）</t>
+  </si>
+  <si>
+    <t>分页查询广告位信息+模糊查询</t>
+  </si>
+  <si>
+    <t>广告管理</t>
+  </si>
+  <si>
+    <t>分页查询广告信息+模糊查询（注：状态根据枚举渲染）</t>
+  </si>
+  <si>
+    <t>增加广告（注：广告位通过接口查寻、状态默认未发布）</t>
+  </si>
+  <si>
+    <t>修改广告（注：广告位通过接口查寻、状态默认未发布）</t>
+  </si>
+  <si>
+    <t>删除广告（注：已发布不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除广告（注：已发布不允许删除）</t>
+  </si>
+  <si>
+    <t>发布广告（注：发布状态由枚举值带出，已发布、已取消不允许再次发布）</t>
+  </si>
+  <si>
+    <t>新闻分类管理</t>
+  </si>
+  <si>
+    <t>新闻分类分页查询+模糊查询</t>
+  </si>
+  <si>
+    <t>增加新闻分类</t>
+  </si>
+  <si>
+    <t>修改新闻分类</t>
+  </si>
+  <si>
+    <t>删除新闻分类（分类下有新闻不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除新闻分类（分类下有新闻不允许删除）</t>
+  </si>
+  <si>
+    <t>新闻管理</t>
+  </si>
+  <si>
+    <t>分页查询新闻信息+模糊查询+发布状态查询</t>
+  </si>
+  <si>
+    <t>增加新闻信息（注：分类由分类接口带入，附件采用通用附件接口）</t>
+  </si>
+  <si>
+    <t>修改新闻信息（注：分类由分类接口带入，附件采用通用附件接口，已发布新闻不允许修改）</t>
+  </si>
+  <si>
+    <t>删除新闻（已发布新闻不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除新闻(已发布新闻不允许删除)</t>
+  </si>
+  <si>
+    <t>发布新闻（已发布新闻不允许删除）</t>
+  </si>
+  <si>
+    <t>支付管理</t>
+  </si>
+  <si>
+    <t>支付商家管理</t>
+  </si>
+  <si>
+    <t>分页查询支付商家信息+模糊查询+商户类型（注：列表记录商户类型、启用状态通过枚举渲染）</t>
+  </si>
+  <si>
+    <t>增加支付商家信息（注：启用状态枚举带出、商户类型枚举带出、判断商户号唯一）</t>
+  </si>
+  <si>
+    <t>修改支付商家信息（注：启用状态枚举带出、商户类型枚举带出、判断商户号唯一）</t>
+  </si>
+  <si>
+    <t>删除支付商家信息（注：已启用、下面包含支付渠道不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除支付商家信息（注：已启用、下面包含支付渠道不允许删除）</t>
+  </si>
+  <si>
+    <t>停用、启用支付商家</t>
+  </si>
+  <si>
+    <t>支付渠道管理</t>
+  </si>
+  <si>
+    <t>支付渠道分页查询+支付商家（注：列表渠道ID、渠道名称通过枚举接口渲染）</t>
+  </si>
+  <si>
+    <t>增加支付渠道（注：支付渠道ID、支付渠道名称、状态由没觉接口带出、支付商家查询所有支付商家接口）</t>
+  </si>
+  <si>
+    <t>修改支付渠道（注：支付渠道ID、支付渠道名称、状态由没觉接口带出、支付商家查询所有支付商家接口）</t>
+  </si>
+  <si>
+    <t>删除支付渠道（注：已启动用支付渠道不允许删除）</t>
+  </si>
+  <si>
+    <t>批量删除支付渠道（注：已启动用支付渠道不允许删除）</t>
+  </si>
+  <si>
+    <t>启用、停止支付渠道</t>
+  </si>
+  <si>
+    <t>支付订单管理</t>
+  </si>
+  <si>
+    <t>支付订单分页+模糊查询</t>
+  </si>
+  <si>
+    <t>查看支付订单详情</t>
+  </si>
+  <si>
+    <t>转账订单管理</t>
+  </si>
+  <si>
+    <t>转账订单分页查询+模糊查询</t>
+  </si>
+  <si>
+    <t>转账订单详情</t>
+  </si>
+  <si>
+    <t>商户通知管理</t>
+  </si>
+  <si>
+    <t>商户通知分页查询、模糊查询（注意：成功失败状态颜色区分）</t>
+  </si>
+  <si>
+    <t>商户通知删除</t>
+  </si>
+  <si>
+    <t>统计管理</t>
+  </si>
+  <si>
+    <t>订单统计</t>
+  </si>
+  <si>
+    <t>孟嘉靖</t>
+  </si>
+  <si>
+    <t>前端开始</t>
+  </si>
+  <si>
+    <t>会员统计</t>
+  </si>
+  <si>
+    <t>首页（暂定-由UI设计）</t>
+  </si>
+  <si>
+    <t>会员中心</t>
+  </si>
+  <si>
+    <t>会员等级管理</t>
+  </si>
+  <si>
+    <t>分页查询会员等级+模糊查询</t>
+  </si>
+  <si>
+    <t>增加会员等级（设置等级权限）</t>
+  </si>
+  <si>
+    <t>删除会员等级</t>
+  </si>
+  <si>
+    <t>批量删除会员等级</t>
+  </si>
+  <si>
+    <t>修改会员等级</t>
+  </si>
+  <si>
+    <t>等级权限管理</t>
+  </si>
+  <si>
+    <t>分页查询会员等级权限+模糊查询</t>
+  </si>
+  <si>
+    <t>增加会员等级权限（注意：等级权限编码必须唯一、由枚举带出、并增加权限要素）</t>
+  </si>
+  <si>
+    <t>修改会员等级权限（注意：等级权限编码必须唯一、由枚举带出、并增加权限要素）</t>
+  </si>
+  <si>
+    <t>公司管理</t>
+  </si>
+  <si>
+    <t>公司列表分页查询+模糊查询+状态</t>
+  </si>
+  <si>
+    <t>UI结束</t>
+  </si>
+  <si>
+    <t>查看公司详情</t>
+  </si>
+  <si>
+    <t>审核公司</t>
+  </si>
+  <si>
+    <t>团队管理</t>
+  </si>
+  <si>
+    <t>团队列表分页查询+模糊查询+状态</t>
+  </si>
+  <si>
+    <t>查看团队详情</t>
+  </si>
+  <si>
+    <t>审核团队</t>
+  </si>
+  <si>
+    <t>会员权限管理</t>
+  </si>
+  <si>
+    <t>分页查询会员权限+模糊查询</t>
+  </si>
+  <si>
+    <t>增加会员权限</t>
+  </si>
+  <si>
+    <t>删除会员权限</t>
+  </si>
+  <si>
+    <t>批量删除会员权限</t>
+  </si>
+  <si>
+    <t>修改会员权限</t>
+  </si>
+  <si>
+    <t>结算管理</t>
+  </si>
+  <si>
+    <t>分页查询结算申请</t>
+  </si>
+  <si>
+    <t>查看申请详情</t>
+  </si>
+  <si>
+    <t>审核结算申请</t>
+  </si>
+  <si>
+    <t>结算转账记录</t>
+  </si>
+  <si>
+    <t>查看转账详情</t>
+  </si>
+  <si>
+    <t>用户中心</t>
+  </si>
+  <si>
+    <t>任务中心</t>
+  </si>
+  <si>
+    <t>发布任务</t>
+  </si>
+  <si>
+    <t>分页查询已完成任务（分页查询接口）</t>
+  </si>
+  <si>
+    <t>谭文静</t>
+  </si>
+  <si>
+    <t>查看已完成任务详情（任务详情接口）</t>
+  </si>
+  <si>
+    <t>聂海洋</t>
+  </si>
+  <si>
+    <t>分页查询待审核任务（分页查询待审核任务接口）</t>
+  </si>
+  <si>
+    <t>可修改待审核任务、查看任务详情（任务详情接口）</t>
+  </si>
+  <si>
+    <t>分页查看已发布任务（任务详情接口）</t>
+  </si>
+  <si>
+    <t>查看已发布任务详情（任务详情接口）</t>
+  </si>
+  <si>
+    <t>选着竞标人、查看任务合同、托管任务赏金（选竞标人接口，任务订单接口，支付订单接口，查询支付渠道接口）</t>
+  </si>
+  <si>
+    <t>验收完成任务（需求方确认验收任务接口，）</t>
+  </si>
+  <si>
+    <t>接收任务</t>
+  </si>
+  <si>
+    <t>分页查询我参与任务（分页查询接口）</t>
+  </si>
+  <si>
+    <t>翁少锋</t>
+  </si>
+  <si>
+    <t>查看我参与任务详情（任务详情接口）</t>
+  </si>
+  <si>
+    <t>提交竞标记录（参与竞标）</t>
+  </si>
+  <si>
+    <t>开始工作（任务开始执行）（服务方开始任务接口）</t>
+  </si>
+  <si>
+    <t>确认验收任务（服务方提交验收任务接口）</t>
+  </si>
+  <si>
+    <t>会员等级申请</t>
+  </si>
+  <si>
+    <t>黄辉勇</t>
+  </si>
+  <si>
+    <t>会员等级申请记录分页查询（分页查询接口）</t>
+  </si>
+  <si>
+    <t>会员等级变更</t>
+  </si>
+  <si>
+    <t>会员等级变更记录分页查询（分页查询接口）</t>
+  </si>
+  <si>
+    <t>个人信息管理</t>
+  </si>
+  <si>
+    <t>个人信息管理、完善个人信息</t>
+  </si>
+  <si>
+    <t>佣金管理</t>
+  </si>
+  <si>
+    <t>佣金记录分页查询</t>
+  </si>
+  <si>
+    <t>佣金提现申请</t>
+  </si>
+  <si>
+    <t>佣金体现申请分页查询</t>
+  </si>
+  <si>
+    <t>创建公司、包含附件信息（创建公司接口）</t>
+  </si>
+  <si>
     <t>后端完成</t>
   </si>
   <si>
-    <t>添加行业类型</t>
-  </si>
-  <si>
-    <t>删除行业类型</t>
-  </si>
-  <si>
-    <t>批量删除行业类型</t>
-  </si>
-  <si>
-    <t>修改行业类型</t>
-  </si>
-  <si>
-    <t>任务类型管理</t>
-  </si>
-  <si>
-    <t>任务类型分页查询+模糊查询</t>
-  </si>
-  <si>
-    <t>修改任务类型</t>
-  </si>
-  <si>
-    <t>删除任务类型</t>
-  </si>
-  <si>
-    <t>批量删除任务类型</t>
-  </si>
-  <si>
-    <t>添加任务类型</t>
-  </si>
-  <si>
-    <t>校验任务编码唯一</t>
-  </si>
-  <si>
-    <t>查询任务编码枚举</t>
-  </si>
-  <si>
-    <t>任务标签管理</t>
-  </si>
-  <si>
-    <t>任务标签分页查询+模糊查询</t>
-  </si>
-  <si>
-    <t>删除任务标签</t>
-  </si>
-  <si>
-    <t>批量删除任务标签</t>
-  </si>
-  <si>
-    <t>修改任务标签</t>
-  </si>
-  <si>
-    <t>增加任务标签</t>
-  </si>
-  <si>
-    <t>任务分页查询+模糊查询</t>
-  </si>
-  <si>
-    <t>查看任务详情</t>
-  </si>
-  <si>
-    <t>审核任务</t>
-  </si>
-  <si>
-    <t>任务订单管理</t>
-  </si>
-  <si>
-    <t>任务订单列表查询+模糊查询</t>
-  </si>
-  <si>
-    <t>查看订单详情</t>
-  </si>
-  <si>
-    <t>内容管理</t>
-  </si>
-  <si>
-    <t>消息模板管理</t>
-  </si>
-  <si>
-    <t>消息模板分页查询+模糊查询+消息类型+业务编码查询</t>
-  </si>
-  <si>
-    <t>党开鑫</t>
-  </si>
-  <si>
-    <t>添加消息模板（注意:先查询消息类型枚举+业务编码枚举）</t>
-  </si>
-  <si>
-    <t>编辑消息模板</t>
-  </si>
-  <si>
-    <t>删除消息模板</t>
-  </si>
-  <si>
-    <t>批量删除消息模板</t>
-  </si>
-  <si>
-    <t>校验同类型下业务编码唯一</t>
-  </si>
-  <si>
-    <t>消息日志管理</t>
-  </si>
-  <si>
-    <t>消息日志分页查询+模糊查询+消息类型+业务编码查询（注：列表数据类型、编码通过枚举渲染）</t>
-  </si>
-  <si>
-    <t>删除消息日志</t>
-  </si>
-  <si>
-    <t>广告位管理</t>
-  </si>
-  <si>
-    <t>增加广告位（注：校验广告位编码唯一）</t>
-  </si>
-  <si>
-    <t>修改广告位（注：校验广告位编码唯一）</t>
-  </si>
-  <si>
-    <t>删除广告位（注：已有广告不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除广告位（注：已有广告不允许删除）</t>
-  </si>
-  <si>
-    <t>分页查询广告位信息+模糊查询</t>
-  </si>
-  <si>
-    <t>广告管理</t>
-  </si>
-  <si>
-    <t>分页查询广告信息+模糊查询（注：状态根据枚举渲染）</t>
-  </si>
-  <si>
-    <t>增加广告（注：广告位通过接口查寻、状态默认未发布）</t>
-  </si>
-  <si>
-    <t>修改广告（注：广告位通过接口查寻、状态默认未发布）</t>
-  </si>
-  <si>
-    <t>删除广告（注：已发布不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除广告（注：已发布不允许删除）</t>
-  </si>
-  <si>
-    <t>发布广告（注：发布状态由枚举值带出，已发布、已取消不允许再次发布）</t>
-  </si>
-  <si>
-    <t>新闻分类管理</t>
-  </si>
-  <si>
-    <t>新闻分类分页查询+模糊查询</t>
-  </si>
-  <si>
-    <t>增加新闻分类</t>
-  </si>
-  <si>
-    <t>修改新闻分类</t>
-  </si>
-  <si>
-    <t>删除新闻分类（分类下有新闻不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除新闻分类（分类下有新闻不允许删除）</t>
-  </si>
-  <si>
-    <t>新闻管理</t>
-  </si>
-  <si>
-    <t>分页查询新闻信息+模糊查询+发布状态查询</t>
-  </si>
-  <si>
-    <t>增加新闻信息（注：分类由分类接口带入，附件采用通用附件接口）</t>
-  </si>
-  <si>
-    <t>修改新闻信息（注：分类由分类接口带入，附件采用通用附件接口，已发布新闻不允许修改）</t>
-  </si>
-  <si>
-    <t>删除新闻（已发布新闻不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除新闻(已发布新闻不允许删除)</t>
-  </si>
-  <si>
-    <t>发布新闻（已发布新闻不允许删除）</t>
-  </si>
-  <si>
-    <t>支付管理</t>
-  </si>
-  <si>
-    <t>支付商家管理</t>
-  </si>
-  <si>
-    <t>分页查询支付商家信息+模糊查询+商户类型（注：列表记录商户类型、启用状态通过枚举渲染）</t>
-  </si>
-  <si>
-    <t>增加支付商家信息（注：启用状态枚举带出、商户类型枚举带出、判断商户号唯一）</t>
-  </si>
-  <si>
-    <t>修改支付商家信息（注：启用状态枚举带出、商户类型枚举带出、判断商户号唯一）</t>
-  </si>
-  <si>
-    <t>删除支付商家信息（注：已启用、下面包含支付渠道不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除支付商家信息（注：已启用、下面包含支付渠道不允许删除）</t>
-  </si>
-  <si>
-    <t>停用、启用支付商家</t>
-  </si>
-  <si>
-    <t>支付渠道管理</t>
-  </si>
-  <si>
-    <t>支付渠道分页查询+支付商家（注：列表渠道ID、渠道名称通过枚举接口渲染）</t>
-  </si>
-  <si>
-    <t>增加支付渠道（注：支付渠道ID、支付渠道名称、状态由没觉接口带出、支付商家查询所有支付商家接口）</t>
-  </si>
-  <si>
-    <t>修改支付渠道（注：支付渠道ID、支付渠道名称、状态由没觉接口带出、支付商家查询所有支付商家接口）</t>
-  </si>
-  <si>
-    <t>删除支付渠道（注：已启动用支付渠道不允许删除）</t>
-  </si>
-  <si>
-    <t>批量删除支付渠道（注：已启动用支付渠道不允许删除）</t>
-  </si>
-  <si>
-    <t>启用、停止支付渠道</t>
-  </si>
-  <si>
-    <t>支付订单管理</t>
-  </si>
-  <si>
-    <t>支付订单分页+模糊查询</t>
-  </si>
-  <si>
-    <t>查看支付订单详情</t>
-  </si>
-  <si>
-    <t>转账订单管理</t>
-  </si>
-  <si>
-    <t>转账订单分页查询+模糊查询</t>
-  </si>
-  <si>
-    <t>转账订单详情</t>
-  </si>
-  <si>
-    <t>商户通知管理</t>
-  </si>
-  <si>
-    <t>商户通知分页查询、模糊查询（注意：成功失败状态颜色区分）</t>
-  </si>
-  <si>
-    <t>商户通知删除</t>
-  </si>
-  <si>
-    <t>统计管理</t>
-  </si>
-  <si>
-    <t>订单统计</t>
-  </si>
-  <si>
-    <t>孟嘉靖</t>
-  </si>
-  <si>
-    <t>会员统计</t>
-  </si>
-  <si>
-    <t>首页（暂定-由UI设计）</t>
-  </si>
-  <si>
-    <t>会员中心</t>
-  </si>
-  <si>
-    <t>会员等级管理</t>
-  </si>
-  <si>
-    <t>分页查询会员等级+模糊查询</t>
-  </si>
-  <si>
-    <t>增加会员等级（设置等级权限）</t>
-  </si>
-  <si>
-    <t>删除会员等级</t>
-  </si>
-  <si>
-    <t>批量删除会员等级</t>
-  </si>
-  <si>
-    <t>修改会员等级</t>
-  </si>
-  <si>
-    <t>等级权限管理</t>
-  </si>
-  <si>
-    <t>分页查询会员等级权限+模糊查询</t>
-  </si>
-  <si>
-    <t>增加会员等级权限（注意：等级权限编码必须唯一、由枚举带出、并增加权限要素）</t>
-  </si>
-  <si>
-    <t>修改会员等级权限（注意：等级权限编码必须唯一、由枚举带出、并增加权限要素）</t>
-  </si>
-  <si>
-    <t>公司管理</t>
-  </si>
-  <si>
-    <t>公司列表分页查询+模糊查询+状态</t>
-  </si>
-  <si>
-    <t>查看公司详情</t>
-  </si>
-  <si>
-    <t>审核公司</t>
-  </si>
-  <si>
-    <t>团队管理</t>
-  </si>
-  <si>
-    <t>团队列表分页查询+模糊查询+状态</t>
-  </si>
-  <si>
-    <t>查看团队详情</t>
-  </si>
-  <si>
-    <t>审核团队</t>
-  </si>
-  <si>
-    <t>用户中心</t>
-  </si>
-  <si>
-    <t>任务中心</t>
-  </si>
-  <si>
-    <t>发布任务</t>
-  </si>
-  <si>
-    <t>分页查询已完成任务</t>
-  </si>
-  <si>
-    <t>谭文静</t>
+    <t>新增公司成员、分配岗位（添加公司员工接口，公司员工分配岗位接口，员工岗位变更接口）</t>
+  </si>
+  <si>
+    <t>完善公司信息（修改公司信息接口）</t>
+  </si>
+  <si>
+    <t>添加、删除、修改岗位（新建岗位接口，修改岗位接口，删除岗位接口，批量删除岗位接口）</t>
+  </si>
+  <si>
+    <t>创建团队、负责人附件（创建团队接口）</t>
+  </si>
+  <si>
+    <t>创建团队成员、可删除（创建团队接口）</t>
+  </si>
+  <si>
+    <t>完善团队信息（编辑团队信息接口）</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>项目列表</t>
+  </si>
+  <si>
+    <t>创建项目、上传项目附件、设置项目成员（项目任务编辑接口）</t>
+  </si>
+  <si>
+    <t>删除项目（项目任务删除接口）</t>
+  </si>
+  <si>
+    <t>完善项目信息（项目详情接口）</t>
+  </si>
+  <si>
+    <t>拆分项目任务、指定任务负责人</t>
+  </si>
+  <si>
+    <t>时时更新任务进度</t>
+  </si>
+  <si>
+    <t>后端开始</t>
+  </si>
+  <si>
+    <t>查询项目甘特图</t>
+  </si>
+  <si>
+    <t>工作计划</t>
+  </si>
+  <si>
+    <t>日程查看工作计划（查询我的日程计划接口，查询我的日程计划 周接口，查询我的日程计划月接口）</t>
+  </si>
+  <si>
+    <t>添加工作计划</t>
+  </si>
+  <si>
+    <t>审核人审核工作计划</t>
+  </si>
+  <si>
+    <t>首页统计工作计划</t>
+  </si>
+  <si>
+    <t>分页、任务类型、行业类型、金额查询所有任务列表（注意：项目周期、项目金额排序）</t>
   </si>
   <si>
     <t>前端完成</t>
-  </si>
-  <si>
-    <t>查看已完成任务详情</t>
-  </si>
-  <si>
-    <t>聂海洋</t>
-  </si>
-  <si>
-    <t>分页查询待审核任务</t>
-  </si>
-  <si>
-    <t>可修改待审核任务、查看任务详情</t>
-  </si>
-  <si>
-    <t>分页查看已发布任务</t>
-  </si>
-  <si>
-    <t>查看已发布任务详情</t>
-  </si>
-  <si>
-    <t>选着竞标人、查看任务合同、托管任务赏金</t>
-  </si>
-  <si>
-    <t>验收完成任务</t>
-  </si>
-  <si>
-    <t>接收任务</t>
-  </si>
-  <si>
-    <t>分页查询我参与任务</t>
-  </si>
-  <si>
-    <t>翁少锋</t>
-  </si>
-  <si>
-    <t>查看我参与任务详情</t>
-  </si>
-  <si>
-    <t>提交竞标记录（参与竞标）</t>
-  </si>
-  <si>
-    <t>开始工作（任务开始执行）</t>
-  </si>
-  <si>
-    <t>确认验收任务</t>
-  </si>
-  <si>
-    <t>会员等级申请</t>
-  </si>
-  <si>
-    <t>黄辉勇</t>
-  </si>
-  <si>
-    <t>会员等级申请记录分页查询</t>
-  </si>
-  <si>
-    <t>会员等级变更</t>
-  </si>
-  <si>
-    <t>会员等级变更记录分页查询</t>
-  </si>
-  <si>
-    <t>个人信息管理</t>
-  </si>
-  <si>
-    <t>个人信息管理、完善个人信息</t>
-  </si>
-  <si>
-    <t>佣金管理</t>
-  </si>
-  <si>
-    <t>佣金记录分页查询</t>
-  </si>
-  <si>
-    <t>佣金提现申请</t>
-  </si>
-  <si>
-    <t>佣金体现申请分页查询</t>
-  </si>
-  <si>
-    <t>创建公司、包含附件信息</t>
-  </si>
-  <si>
-    <t>新增公司成员、分配岗位</t>
-  </si>
-  <si>
-    <t>完善公司信息</t>
-  </si>
-  <si>
-    <t>添加、删除、修改岗位</t>
-  </si>
-  <si>
-    <t>创建团队、负责人附件</t>
-  </si>
-  <si>
-    <t>创建团队成员、可删除</t>
-  </si>
-  <si>
-    <t>完善团队信息</t>
-  </si>
-  <si>
-    <t>项目管理</t>
-  </si>
-  <si>
-    <t>项目列表</t>
-  </si>
-  <si>
-    <t>创建项目、上传项目附件、设置项目成员</t>
-  </si>
-  <si>
-    <t>删除项目</t>
-  </si>
-  <si>
-    <t>完善项目信息</t>
-  </si>
-  <si>
-    <t>拆分项目任务、指定任务负责人</t>
-  </si>
-  <si>
-    <t>时时更新任务进度</t>
-  </si>
-  <si>
-    <t>查询项目甘特图</t>
-  </si>
-  <si>
-    <t>工作计划</t>
-  </si>
-  <si>
-    <t>日程查看工作计划</t>
-  </si>
-  <si>
-    <t>添加工作计划</t>
-  </si>
-  <si>
-    <t>审核人审核工作计划</t>
-  </si>
-  <si>
-    <t>首页统计工作计划</t>
-  </si>
-  <si>
-    <t>分页、任务类型、行业类型、金额查询所有任务列表（注意：项目周期、项目金额排序）</t>
   </si>
   <si>
     <t>进入任务详情</t>
@@ -635,7 +683,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,6 +697,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -657,9 +713,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,53 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +767,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,6 +776,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,13 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +868,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,121 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,6 +1073,28 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1048,38 +1118,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,32 +1150,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1187,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,10 +1222,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,137 +1234,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,19 +1375,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1356,10 +1404,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1368,34 +1413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,11 +1434,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1485,7 +1509,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1735,10 +1759,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120:H120"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G133" sqref="G133:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5102,7 +5128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" ht="15" customHeight="1" spans="1:27">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5"/>
@@ -5206,7 +5232,9 @@
       <c r="Z72" s="12">
         <v>43928</v>
       </c>
-      <c r="AA72" s="9"/>
+      <c r="AA72" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="6"/>
@@ -5216,7 +5244,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="9" t="s">
@@ -5261,13 +5289,15 @@
       <c r="Z73" s="12">
         <v>43928</v>
       </c>
-      <c r="AA73" s="9"/>
+      <c r="AA73" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="9"/>
@@ -5316,21 +5346,23 @@
       <c r="Z74" s="12">
         <v>43928</v>
       </c>
-      <c r="AA74" s="9"/>
+      <c r="AA74" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="4"/>
+      <c r="C75" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="13"/>
       <c r="E75" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="9"/>
@@ -5369,17 +5401,19 @@
       <c r="Z75" s="12">
         <v>43930</v>
       </c>
-      <c r="AA75" s="9"/>
+      <c r="AA75" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="9"/>
@@ -5418,17 +5452,19 @@
       <c r="Z76" s="12">
         <v>43930</v>
       </c>
-      <c r="AA76" s="9"/>
+      <c r="AA76" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="9"/>
@@ -5467,17 +5503,19 @@
       <c r="Z77" s="12">
         <v>43930</v>
       </c>
-      <c r="AA77" s="9"/>
+      <c r="AA77" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="9"/>
@@ -5516,17 +5554,19 @@
       <c r="Z78" s="12">
         <v>43930</v>
       </c>
-      <c r="AA78" s="9"/>
+      <c r="AA78" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
@@ -5565,19 +5605,21 @@
       <c r="Z79" s="12">
         <v>43930</v>
       </c>
-      <c r="AA79" s="9"/>
+      <c r="AA79" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="9"/>
@@ -5616,17 +5658,19 @@
       <c r="Z80" s="12">
         <v>43931</v>
       </c>
-      <c r="AA80" s="9"/>
+      <c r="AA80" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="9"/>
@@ -5665,17 +5709,19 @@
       <c r="Z81" s="12">
         <v>43931</v>
       </c>
-      <c r="AA81" s="9"/>
+      <c r="AA81" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="9"/>
@@ -5714,17 +5760,19 @@
       <c r="Z82" s="12">
         <v>43931</v>
       </c>
-      <c r="AA82" s="9"/>
+      <c r="AA82" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="9"/>
@@ -5763,17 +5811,19 @@
       <c r="Z83" s="12">
         <v>43931</v>
       </c>
-      <c r="AA83" s="9"/>
+      <c r="AA83" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="9"/>
@@ -5812,762 +5862,628 @@
       <c r="Z84" s="12">
         <v>43931</v>
       </c>
-      <c r="AA84" s="9"/>
+      <c r="AA84" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15" t="s">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H85" s="16"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="24"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
       <c r="R85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S85" s="2"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="24"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
       <c r="X85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
-      <c r="AA85" s="9"/>
+      <c r="AA85" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H86" s="16"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="5"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="10"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="24"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
       <c r="R86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S86" s="2"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="23"/>
-      <c r="W86" s="24"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
       <c r="X86" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
-      <c r="AA86" s="9"/>
+      <c r="AA86" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="16"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
       <c r="K87" s="9"/>
-      <c r="L87" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L87" s="10"/>
       <c r="M87" s="10"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="24"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
       <c r="R87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S87" s="2"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="23"/>
-      <c r="W87" s="24"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
       <c r="X87" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="16"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H88" s="5"/>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
       <c r="K88" s="9"/>
-      <c r="L88" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L88" s="10"/>
       <c r="M88" s="10"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="24"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
       <c r="R88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S88" s="2"/>
-      <c r="T88" s="23"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="23"/>
-      <c r="W88" s="24"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
       <c r="X88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
-      <c r="AA88" s="9"/>
+      <c r="AA88" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H89" s="16"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H89" s="5"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
       <c r="K89" s="9"/>
-      <c r="L89" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L89" s="10"/>
       <c r="M89" s="10"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="24"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
       <c r="R89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S89" s="2"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="24"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
       <c r="X89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
-      <c r="AA89" s="9"/>
+      <c r="AA89" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="90" spans="1:27">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H90" s="16"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H90" s="5"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
       <c r="K90" s="9"/>
-      <c r="L90" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L90" s="10"/>
       <c r="M90" s="10"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="24"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
       <c r="R90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S90" s="2"/>
-      <c r="T90" s="23"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="23"/>
-      <c r="W90" s="24"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
       <c r="X90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="91" spans="1:27">
-      <c r="A91" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5" t="s">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
+      <c r="F91" s="13"/>
+      <c r="G91" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J91" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K91" s="12">
-        <v>43915</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M91" s="10"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="26"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
       <c r="R91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="2"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y91" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z91" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA91" s="9" t="s">
+      <c r="H92" s="13"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:27">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5" t="s">
+      <c r="H93" s="13"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H92" s="5"/>
-      <c r="I92" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J92" s="12">
-        <v>43915</v>
-      </c>
-      <c r="K92" s="12">
-        <v>43915</v>
-      </c>
-      <c r="L92" s="27" t="s">
+      <c r="H94" s="13"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M92" s="27"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y92" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z92" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA92" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
+      <c r="H95" s="13"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S95" s="2"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H93" s="5"/>
-      <c r="I93" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J93" s="12">
-        <v>43915</v>
-      </c>
-      <c r="K93" s="12">
-        <v>43915</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y93" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z93" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA93" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5" t="s">
+      <c r="D96" s="13"/>
+      <c r="E96" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H94" s="5"/>
-      <c r="I94" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J94" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K94" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M94" s="10"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y94" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z94" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA94" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
+      <c r="H96" s="13"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H95" s="5"/>
-      <c r="I95" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J95" s="12">
-        <v>43915</v>
-      </c>
-      <c r="K95" s="12">
-        <v>43915</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M95" s="10"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="25"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y95" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z95" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA95" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
+      <c r="H97" s="13"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S97" s="2"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J96" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K96" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L96" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M96" s="27"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y96" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z96" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA96" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5" t="s">
+      <c r="H98" s="13"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H97" s="5"/>
-      <c r="I97" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J97" s="12">
-        <v>43915</v>
-      </c>
-      <c r="K97" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L97" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="27"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="25"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y97" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z97" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA97" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5" t="s">
+      <c r="H99" s="13"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S99" s="2"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H98" s="5"/>
-      <c r="I98" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J98" s="12">
-        <v>43915</v>
-      </c>
-      <c r="K98" s="12">
-        <v>43915</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M98" s="27"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="25"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y98" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z98" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA98" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
+      <c r="H100" s="13"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="2"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="11"/>
+      <c r="AA100" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="9" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J99" s="28">
-        <v>43915</v>
-      </c>
-      <c r="K99" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L99" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M99" s="10"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y99" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z99" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA99" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H100" s="5"/>
-      <c r="I100" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J100" s="28">
-        <v>43915</v>
-      </c>
-      <c r="K100" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M100" s="27"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y100" s="30">
-        <v>43915</v>
-      </c>
-      <c r="Z100" s="30">
-        <v>43921</v>
-      </c>
-      <c r="AA100" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J101" s="28">
+        <v>107</v>
+      </c>
+      <c r="J101" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K101" s="12">
         <v>43915</v>
       </c>
-      <c r="K101" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L101" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M101" s="27"/>
-      <c r="N101" s="25"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="25"/>
-      <c r="Q101" s="26"/>
+      <c r="L101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6577,14 +6493,14 @@
       <c r="X101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y101" s="30">
+      <c r="Y101" s="22">
         <v>43915</v>
       </c>
-      <c r="Z101" s="30">
+      <c r="Z101" s="22">
         <v>43921</v>
       </c>
       <c r="AA101" s="9" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -6599,24 +6515,24 @@
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J102" s="28">
+        <v>107</v>
+      </c>
+      <c r="J102" s="12">
         <v>43915</v>
       </c>
-      <c r="K102" s="28">
+      <c r="K102" s="12">
         <v>43915</v>
       </c>
-      <c r="L102" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M102" s="27"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="26"/>
+      <c r="L102" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M102" s="19"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6626,14 +6542,14 @@
       <c r="X102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y102" s="30">
+      <c r="Y102" s="22">
         <v>43915</v>
       </c>
-      <c r="Z102" s="30">
+      <c r="Z102" s="22">
         <v>43921</v>
       </c>
       <c r="AA102" s="9" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -6644,28 +6560,28 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J103" s="28">
+        <v>107</v>
+      </c>
+      <c r="J103" s="12">
         <v>43915</v>
       </c>
-      <c r="K103" s="28">
+      <c r="K103" s="12">
         <v>43915</v>
       </c>
-      <c r="L103" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M103" s="27"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="26"/>
+      <c r="L103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6675,70 +6591,64 @@
       <c r="X103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y103" s="30">
+      <c r="Y103" s="22">
         <v>43915</v>
       </c>
-      <c r="Z103" s="30">
+      <c r="Z103" s="22">
         <v>43921</v>
       </c>
       <c r="AA103" s="9" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J104" s="28">
-        <v>43915</v>
-      </c>
-      <c r="K104" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L104" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M104" s="29"/>
-      <c r="N104" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="J104" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K104" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="11"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S104" s="2"/>
-      <c r="T104" s="11">
-        <v>43916</v>
-      </c>
+      <c r="T104" s="2"/>
       <c r="U104" s="2"/>
-      <c r="V104" s="11">
-        <v>43917</v>
-      </c>
+      <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y104" s="30">
-        <v>43920</v>
-      </c>
-      <c r="Z104" s="30">
+        <v>17</v>
+      </c>
+      <c r="Y104" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z104" s="22">
         <v>43921</v>
       </c>
-      <c r="AA104" s="9"/>
+      <c r="AA104" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="5"/>
@@ -6752,44 +6662,42 @@
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J105" s="28">
+        <v>107</v>
+      </c>
+      <c r="J105" s="12">
         <v>43915</v>
       </c>
-      <c r="K105" s="28">
+      <c r="K105" s="12">
         <v>43915</v>
       </c>
-      <c r="L105" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M105" s="29"/>
-      <c r="N105" s="11"/>
+      <c r="L105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
-      <c r="P105" s="11"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S105" s="2"/>
-      <c r="T105" s="11">
-        <v>43916</v>
-      </c>
+      <c r="T105" s="2"/>
       <c r="U105" s="2"/>
-      <c r="V105" s="11">
-        <v>43917</v>
-      </c>
+      <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y105" s="30">
-        <v>43920</v>
-      </c>
-      <c r="Z105" s="30">
+        <v>17</v>
+      </c>
+      <c r="Y105" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z105" s="22">
         <v>43921</v>
       </c>
-      <c r="AA105" s="9"/>
+      <c r="AA105" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="5"/>
@@ -6803,44 +6711,42 @@
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J106" s="28">
-        <v>43915</v>
-      </c>
-      <c r="K106" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L106" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M106" s="29"/>
-      <c r="N106" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="J106" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K106" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L106" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M106" s="19"/>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
-      <c r="P106" s="11"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S106" s="2"/>
-      <c r="T106" s="11">
-        <v>43920</v>
-      </c>
+      <c r="T106" s="2"/>
       <c r="U106" s="2"/>
-      <c r="V106" s="11">
-        <v>43921</v>
-      </c>
+      <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y106" s="12">
-        <v>43922</v>
-      </c>
-      <c r="Z106" s="12">
-        <v>43923</v>
-      </c>
-      <c r="AA106" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y106" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z106" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA106" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="5"/>
@@ -6854,101 +6760,91 @@
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J107" s="28">
+        <v>107</v>
+      </c>
+      <c r="J107" s="12">
         <v>43915</v>
       </c>
-      <c r="K107" s="28">
-        <v>43915</v>
-      </c>
-      <c r="L107" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M107" s="29"/>
-      <c r="N107" s="11"/>
+      <c r="K107" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L107" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="11"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S107" s="2"/>
-      <c r="T107" s="11">
-        <v>43920</v>
-      </c>
+      <c r="T107" s="2"/>
       <c r="U107" s="2"/>
-      <c r="V107" s="11">
-        <v>43921</v>
-      </c>
+      <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y107" s="12">
-        <v>43922</v>
-      </c>
-      <c r="Z107" s="12">
-        <v>43923</v>
-      </c>
-      <c r="AA107" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y107" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z107" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA107" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J108" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K108" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L108" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M108" s="27"/>
-      <c r="N108" s="11">
+        <v>107</v>
+      </c>
+      <c r="J108" s="12">
         <v>43915</v>
       </c>
+      <c r="K108" s="12">
+        <v>43915</v>
+      </c>
+      <c r="L108" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M108" s="19"/>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="11">
-        <v>43916</v>
-      </c>
+      <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S108" s="2"/>
-      <c r="T108" s="11">
-        <v>43922</v>
-      </c>
+      <c r="T108" s="2"/>
       <c r="U108" s="2"/>
-      <c r="V108" s="11">
-        <v>43923</v>
-      </c>
+      <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y108" s="12">
-        <v>43924</v>
-      </c>
-      <c r="Z108" s="12">
-        <v>43928</v>
-      </c>
-      <c r="AA108" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y108" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z108" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA108" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="5"/>
@@ -6956,56 +6852,50 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J109" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K109" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L109" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M109" s="27"/>
-      <c r="N109" s="11">
+        <v>158</v>
+      </c>
+      <c r="J109" s="20">
         <v>43915</v>
       </c>
+      <c r="K109" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="11">
-        <v>43916</v>
-      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S109" s="2"/>
-      <c r="T109" s="11">
-        <v>43922</v>
-      </c>
+      <c r="T109" s="2"/>
       <c r="U109" s="2"/>
-      <c r="V109" s="11">
-        <v>43923</v>
-      </c>
+      <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y109" s="12">
-        <v>43924</v>
-      </c>
-      <c r="Z109" s="12">
-        <v>43928</v>
-      </c>
-      <c r="AA109" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y109" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z109" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA109" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="5"/>
@@ -7019,44 +6909,42 @@
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J110" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K110" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L110" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M110" s="29"/>
-      <c r="N110" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="J110" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K110" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L110" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="11"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S110" s="2"/>
-      <c r="T110" s="11">
-        <v>43922</v>
-      </c>
+      <c r="T110" s="2"/>
       <c r="U110" s="2"/>
-      <c r="V110" s="11">
-        <v>43923</v>
-      </c>
+      <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y110" s="12">
-        <v>43924</v>
-      </c>
-      <c r="Z110" s="12">
-        <v>43928</v>
-      </c>
-      <c r="AA110" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y110" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z110" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA110" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="111" spans="1:27">
       <c r="A111" s="5"/>
@@ -7070,103 +6958,87 @@
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J111" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K111" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L111" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M111" s="27"/>
-      <c r="N111" s="11">
+        <v>158</v>
+      </c>
+      <c r="J111" s="20">
         <v>43915</v>
       </c>
+      <c r="K111" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L111" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M111" s="19"/>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="11">
-        <v>43916</v>
-      </c>
+      <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S111" s="2"/>
-      <c r="T111" s="11">
-        <v>43922</v>
-      </c>
+      <c r="T111" s="2"/>
       <c r="U111" s="2"/>
-      <c r="V111" s="11">
-        <v>43923</v>
-      </c>
+      <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y111" s="12">
-        <v>43924</v>
-      </c>
-      <c r="Z111" s="12">
-        <v>43928</v>
-      </c>
-      <c r="AA111" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y111" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z111" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA111" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="112" spans="1:27">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
         <v>161</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J112" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K112" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L112" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M112" s="27"/>
-      <c r="N112" s="11">
-        <v>43916</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J112" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K112" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L112" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M112" s="19"/>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="11">
-        <v>43917</v>
-      </c>
+      <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S112" s="2"/>
-      <c r="T112" s="11">
-        <v>43924</v>
-      </c>
+      <c r="T112" s="2"/>
       <c r="U112" s="2"/>
-      <c r="V112" s="11">
-        <v>43924</v>
-      </c>
+      <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y112" s="12">
-        <v>43927</v>
-      </c>
-      <c r="Z112" s="12">
-        <v>43929</v>
+        <v>17</v>
+      </c>
+      <c r="Y112" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z112" s="22">
+        <v>43921</v>
       </c>
       <c r="AA112" s="9" t="s">
         <v>18</v>
@@ -7184,46 +7056,38 @@
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J113" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K113" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L113" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M113" s="27"/>
-      <c r="N113" s="11">
-        <v>43916</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J113" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K113" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L113" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M113" s="19"/>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
-      <c r="P113" s="11">
-        <v>43917</v>
-      </c>
+      <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S113" s="2"/>
-      <c r="T113" s="11">
-        <v>43924</v>
-      </c>
+      <c r="T113" s="2"/>
       <c r="U113" s="2"/>
-      <c r="V113" s="11">
-        <v>43924</v>
-      </c>
+      <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y113" s="12">
-        <v>43927</v>
-      </c>
-      <c r="Z113" s="12">
-        <v>43929</v>
+        <v>17</v>
+      </c>
+      <c r="Y113" s="22">
+        <v>43915</v>
+      </c>
+      <c r="Z113" s="22">
+        <v>43921</v>
       </c>
       <c r="AA113" s="9" t="s">
         <v>18</v>
@@ -7232,59 +7096,57 @@
     <row r="114" spans="1:27">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J114" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K114" s="28">
-        <v>43916</v>
-      </c>
-      <c r="L114" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M114" s="27"/>
-      <c r="N114" s="11">
-        <v>43916</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J114" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K114" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L114" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M114" s="21"/>
+      <c r="N114" s="11"/>
       <c r="O114" s="2"/>
-      <c r="P114" s="11">
-        <v>43917</v>
-      </c>
+      <c r="P114" s="11"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="11">
-        <v>43927</v>
+        <v>43916</v>
       </c>
       <c r="U114" s="2"/>
       <c r="V114" s="11">
-        <v>43927</v>
+        <v>43917</v>
       </c>
       <c r="W114" s="2"/>
       <c r="X114" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y114" s="12">
-        <v>43927</v>
-      </c>
-      <c r="Z114" s="12">
-        <v>43930</v>
-      </c>
-      <c r="AA114" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="Y114" s="22">
+        <v>43920</v>
+      </c>
+      <c r="Z114" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA114" s="9"/>
     </row>
     <row r="115" spans="1:27">
       <c r="A115" s="5"/>
@@ -7294,113 +7156,99 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J115" s="28">
-        <v>43916</v>
-      </c>
-      <c r="K115" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L115" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M115" s="27"/>
-      <c r="N115" s="11">
-        <v>43916</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J115" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K115" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L115" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M115" s="21"/>
+      <c r="N115" s="11"/>
       <c r="O115" s="2"/>
-      <c r="P115" s="11">
-        <v>43917</v>
-      </c>
+      <c r="P115" s="11"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="11">
-        <v>43927</v>
+        <v>43916</v>
       </c>
       <c r="U115" s="2"/>
       <c r="V115" s="11">
-        <v>43927</v>
+        <v>43917</v>
       </c>
       <c r="W115" s="2"/>
       <c r="X115" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y115" s="12">
-        <v>43927</v>
-      </c>
-      <c r="Z115" s="12">
-        <v>43930</v>
-      </c>
-      <c r="AA115" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="Y115" s="22">
+        <v>43920</v>
+      </c>
+      <c r="Z115" s="22">
+        <v>43921</v>
+      </c>
+      <c r="AA115" s="9"/>
     </row>
     <row r="116" spans="1:27">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J116" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K116" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L116" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M116" s="27"/>
-      <c r="N116" s="11">
-        <v>43917</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J116" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K116" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L116" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M116" s="21"/>
+      <c r="N116" s="11"/>
       <c r="O116" s="2"/>
-      <c r="P116" s="11">
-        <v>43920</v>
-      </c>
+      <c r="P116" s="11"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="11">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="U116" s="2"/>
       <c r="V116" s="11">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="W116" s="2"/>
       <c r="X116" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y116" s="12">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="Z116" s="12">
-        <v>43931</v>
-      </c>
-      <c r="AA116" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="AA116" s="9"/>
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="5"/>
@@ -7410,111 +7258,105 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J117" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K117" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L117" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M117" s="27"/>
-      <c r="N117" s="11">
-        <v>43917</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J117" s="20">
+        <v>43915</v>
+      </c>
+      <c r="K117" s="20">
+        <v>43915</v>
+      </c>
+      <c r="L117" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M117" s="21"/>
+      <c r="N117" s="11"/>
       <c r="O117" s="2"/>
-      <c r="P117" s="11">
-        <v>43920</v>
-      </c>
+      <c r="P117" s="11"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="11">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="U117" s="2"/>
       <c r="V117" s="11">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="W117" s="2"/>
       <c r="X117" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y117" s="12">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="Z117" s="12">
-        <v>43931</v>
-      </c>
-      <c r="AA117" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="AA117" s="9"/>
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J118" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K118" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L118" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M118" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J118" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K118" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M118" s="19"/>
       <c r="N118" s="11">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="11">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S118" s="2"/>
       <c r="T118" s="11">
-        <v>43929</v>
+        <v>43922</v>
       </c>
       <c r="U118" s="2"/>
       <c r="V118" s="11">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="W118" s="2"/>
       <c r="X118" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Y118" s="12">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="Z118" s="12">
-        <v>43931</v>
-      </c>
-      <c r="AA118" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>43928</v>
+      </c>
+      <c r="AA118" s="9"/>
     </row>
     <row r="119" spans="1:27">
       <c r="A119" s="5"/>
@@ -7522,58 +7364,56 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J119" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K119" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L119" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M119" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J119" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K119" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L119" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M119" s="19"/>
       <c r="N119" s="11">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="11">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S119" s="2"/>
       <c r="T119" s="11">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="U119" s="2"/>
       <c r="V119" s="11">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="W119" s="2"/>
       <c r="X119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y119" s="30">
-        <v>43934</v>
-      </c>
-      <c r="Z119" s="30">
-        <v>43935</v>
-      </c>
-      <c r="AA119" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Y119" s="12">
+        <v>43924</v>
+      </c>
+      <c r="Z119" s="12">
+        <v>43928</v>
+      </c>
+      <c r="AA119" s="9"/>
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="5"/>
@@ -7583,54 +7423,48 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J120" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K120" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L120" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M120" s="27"/>
-      <c r="N120" s="11">
-        <v>43920</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J120" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K120" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M120" s="21"/>
+      <c r="N120" s="11"/>
       <c r="O120" s="2"/>
-      <c r="P120" s="11">
-        <v>43921</v>
-      </c>
+      <c r="P120" s="11"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="11">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="U120" s="2"/>
       <c r="V120" s="11">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="W120" s="2"/>
       <c r="X120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y120" s="30">
-        <v>43934</v>
-      </c>
-      <c r="Z120" s="30">
-        <v>43935</v>
-      </c>
-      <c r="AA120" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Y120" s="12">
+        <v>43924</v>
+      </c>
+      <c r="Z120" s="12">
+        <v>43928</v>
+      </c>
+      <c r="AA120" s="9"/>
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="5"/>
@@ -7640,167 +7474,167 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J121" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K121" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L121" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M121" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J121" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K121" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L121" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M121" s="19"/>
       <c r="N121" s="11">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="11">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="11">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="U121" s="2"/>
       <c r="V121" s="11">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="W121" s="2"/>
       <c r="X121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y121" s="30">
-        <v>43934</v>
-      </c>
-      <c r="Z121" s="30">
-        <v>43935</v>
-      </c>
-      <c r="AA121" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Y121" s="12">
+        <v>43924</v>
+      </c>
+      <c r="Z121" s="12">
+        <v>43928</v>
+      </c>
+      <c r="AA121" s="9"/>
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J122" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K122" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L122" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M122" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J122" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K122" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L122" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M122" s="19"/>
       <c r="N122" s="11">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="11">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="11">
-        <v>43934</v>
+        <v>43924</v>
       </c>
       <c r="U122" s="2"/>
       <c r="V122" s="11">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="W122" s="2"/>
       <c r="X122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y122" s="30">
-        <v>43936</v>
-      </c>
-      <c r="Z122" s="30">
-        <v>43937</v>
+        <v>46</v>
+      </c>
+      <c r="Y122" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Z122" s="12">
+        <v>43929</v>
       </c>
       <c r="AA122" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" ht="33" customHeight="1" spans="1:27">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H123" s="5"/>
+      <c r="G123" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H123" s="16"/>
       <c r="I123" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J123" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K123" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L123" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M123" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J123" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K123" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L123" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M123" s="19"/>
       <c r="N123" s="11">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="11">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="11">
-        <v>43934</v>
+        <v>43924</v>
       </c>
       <c r="U123" s="2"/>
       <c r="V123" s="11">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="W123" s="2"/>
       <c r="X123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y123" s="30">
-        <v>43936</v>
-      </c>
-      <c r="Z123" s="30">
-        <v>43937</v>
+        <v>46</v>
+      </c>
+      <c r="Y123" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Z123" s="12">
+        <v>43929</v>
       </c>
       <c r="AA123" s="9" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -7811,52 +7645,54 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J124" s="28">
-        <v>43917</v>
-      </c>
-      <c r="K124" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L124" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M124" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J124" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K124" s="20">
+        <v>43916</v>
+      </c>
+      <c r="L124" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M124" s="19"/>
       <c r="N124" s="11">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="11">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="11">
-        <v>43934</v>
+        <v>43927</v>
       </c>
       <c r="U124" s="2"/>
       <c r="V124" s="11">
-        <v>43935</v>
+        <v>43927</v>
       </c>
       <c r="W124" s="2"/>
       <c r="X124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y124" s="30">
-        <v>43936</v>
-      </c>
-      <c r="Z124" s="30">
-        <v>43937</v>
-      </c>
-      <c r="AA124" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="Y124" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Z124" s="12">
+        <v>43930</v>
+      </c>
+      <c r="AA124" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="125" spans="1:27">
       <c r="A125" s="5"/>
@@ -7866,48 +7702,54 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J125" s="28">
+        <v>158</v>
+      </c>
+      <c r="J125" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K125" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L125" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M125" s="19"/>
+      <c r="N125" s="11">
+        <v>43916</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" s="11">
         <v>43917</v>
       </c>
-      <c r="K125" s="28">
-        <v>43917</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="11"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="11"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="11">
-        <v>43936</v>
+        <v>43927</v>
       </c>
       <c r="U125" s="2"/>
       <c r="V125" s="11">
-        <v>43936</v>
+        <v>43927</v>
       </c>
       <c r="W125" s="2"/>
       <c r="X125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y125" s="30">
-        <v>43937</v>
-      </c>
-      <c r="Z125" s="31">
-        <v>43938</v>
-      </c>
-      <c r="AA125" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="Y125" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Z125" s="12">
+        <v>43930</v>
+      </c>
+      <c r="AA125" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="5"/>
@@ -7915,56 +7757,58 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J126" s="12">
-        <v>43916</v>
-      </c>
-      <c r="K126" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L126" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M126" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J126" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K126" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L126" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M126" s="19"/>
       <c r="N126" s="11">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="11">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="11">
-        <v>43937</v>
+        <v>43928</v>
       </c>
       <c r="U126" s="2"/>
       <c r="V126" s="11">
-        <v>43938</v>
+        <v>43928</v>
       </c>
       <c r="W126" s="2"/>
       <c r="X126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y126" s="30">
-        <v>43941</v>
-      </c>
-      <c r="Z126" s="30">
-        <v>43944</v>
-      </c>
-      <c r="AA126" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="Y126" s="12">
+        <v>43930</v>
+      </c>
+      <c r="Z126" s="12">
+        <v>43931</v>
+      </c>
+      <c r="AA126" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="5"/>
@@ -7974,52 +7818,54 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J127" s="12">
-        <v>43916</v>
-      </c>
-      <c r="K127" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L127" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M127" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J127" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K127" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L127" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M127" s="19"/>
       <c r="N127" s="11">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="11">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="11">
-        <v>43937</v>
+        <v>43928</v>
       </c>
       <c r="U127" s="2"/>
       <c r="V127" s="11">
-        <v>43938</v>
+        <v>43928</v>
       </c>
       <c r="W127" s="2"/>
       <c r="X127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y127" s="30">
-        <v>43941</v>
-      </c>
-      <c r="Z127" s="30">
-        <v>43944</v>
-      </c>
-      <c r="AA127" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="Y127" s="12">
+        <v>43930</v>
+      </c>
+      <c r="Z127" s="12">
+        <v>43931</v>
+      </c>
+      <c r="AA127" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="5"/>
@@ -8029,751 +7875,1325 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J128" s="12">
-        <v>43916</v>
-      </c>
-      <c r="K128" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L128" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M128" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J128" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K128" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L128" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M128" s="19"/>
       <c r="N128" s="11">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="11">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S128" s="2"/>
       <c r="T128" s="11">
-        <v>43937</v>
+        <v>43929</v>
       </c>
       <c r="U128" s="2"/>
       <c r="V128" s="11">
-        <v>43938</v>
+        <v>43929</v>
       </c>
       <c r="W128" s="2"/>
       <c r="X128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y128" s="30">
-        <v>43941</v>
-      </c>
-      <c r="Z128" s="30">
-        <v>43944</v>
-      </c>
-      <c r="AA128" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="Y128" s="12">
+        <v>43930</v>
+      </c>
+      <c r="Z128" s="12">
+        <v>43931</v>
+      </c>
+      <c r="AA128" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J129" s="12">
-        <v>43916</v>
-      </c>
-      <c r="K129" s="12">
-        <v>43916</v>
-      </c>
-      <c r="L129" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M129" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J129" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K129" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L129" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M129" s="19"/>
       <c r="N129" s="11">
-        <v>43924</v>
+        <v>43917</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="11">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="11">
-        <v>43941</v>
+        <v>43930</v>
       </c>
       <c r="U129" s="2"/>
       <c r="V129" s="11">
-        <v>43941</v>
+        <v>43931</v>
       </c>
       <c r="W129" s="2"/>
       <c r="X129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y129" s="30">
-        <v>43942</v>
-      </c>
-      <c r="Z129" s="30">
-        <v>43945</v>
-      </c>
-      <c r="AA129" s="9"/>
+      <c r="Y129" s="22">
+        <v>43934</v>
+      </c>
+      <c r="Z129" s="22">
+        <v>43935</v>
+      </c>
+      <c r="AA129" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="130" spans="1:27">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J130" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K130" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L130" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M130" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="J130" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K130" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L130" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M130" s="19"/>
       <c r="N130" s="11">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="11">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="11">
-        <v>43942</v>
+        <v>43930</v>
       </c>
       <c r="U130" s="2"/>
       <c r="V130" s="11">
-        <v>43943</v>
+        <v>43931</v>
       </c>
       <c r="W130" s="2"/>
       <c r="X130" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y130" s="30">
-        <v>43944</v>
-      </c>
-      <c r="Z130" s="30">
-        <v>43948</v>
+        <v>17</v>
+      </c>
+      <c r="Y130" s="22">
+        <v>43934</v>
+      </c>
+      <c r="Z130" s="22">
+        <v>43935</v>
       </c>
       <c r="AA130" s="9" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:27">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J131" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K131" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L131" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M131" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="J131" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K131" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L131" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M131" s="19"/>
       <c r="N131" s="11">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="11">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="11">
-        <v>43942</v>
+        <v>43930</v>
       </c>
       <c r="U131" s="2"/>
       <c r="V131" s="11">
-        <v>43943</v>
+        <v>43931</v>
       </c>
       <c r="W131" s="2"/>
       <c r="X131" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y131" s="30">
-        <v>43944</v>
-      </c>
-      <c r="Z131" s="30">
-        <v>43948</v>
+        <v>17</v>
+      </c>
+      <c r="Y131" s="22">
+        <v>43934</v>
+      </c>
+      <c r="Z131" s="22">
+        <v>43935</v>
       </c>
       <c r="AA131" s="9" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:27">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J132" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K132" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="J132" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K132" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L132" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M132" s="19"/>
       <c r="N132" s="11">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="11">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="11">
-        <v>43942</v>
+        <v>43934</v>
       </c>
       <c r="U132" s="2"/>
       <c r="V132" s="11">
-        <v>43943</v>
+        <v>43935</v>
       </c>
       <c r="W132" s="2"/>
       <c r="X132" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y132" s="30">
-        <v>43944</v>
-      </c>
-      <c r="Z132" s="30">
-        <v>43948</v>
+        <v>17</v>
+      </c>
+      <c r="Y132" s="22">
+        <v>43936</v>
+      </c>
+      <c r="Z132" s="22">
+        <v>43937</v>
       </c>
       <c r="AA132" s="9" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:27">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J133" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K133" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="J133" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K133" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L133" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M133" s="19"/>
       <c r="N133" s="11">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="11">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="11">
-        <v>43942</v>
+        <v>43934</v>
       </c>
       <c r="U133" s="2"/>
       <c r="V133" s="11">
-        <v>43943</v>
+        <v>43935</v>
       </c>
       <c r="W133" s="2"/>
       <c r="X133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y133" s="30">
-        <v>43944</v>
-      </c>
-      <c r="Z133" s="30">
-        <v>43948</v>
+        <v>17</v>
+      </c>
+      <c r="Y133" s="22">
+        <v>43936</v>
+      </c>
+      <c r="Z133" s="22">
+        <v>43937</v>
       </c>
       <c r="AA133" s="9" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:27">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J134" s="12">
-        <v>43914</v>
-      </c>
-      <c r="K134" s="12">
-        <v>43914</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="J134" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K134" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L134" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M134" s="19"/>
       <c r="N134" s="11">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="11">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="11">
-        <v>43944</v>
+        <v>43934</v>
       </c>
       <c r="U134" s="2"/>
       <c r="V134" s="11">
-        <v>43945</v>
+        <v>43935</v>
       </c>
       <c r="W134" s="2"/>
       <c r="X134" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y134" s="30">
-        <v>43948</v>
-      </c>
-      <c r="Z134" s="30">
-        <v>43951</v>
+        <v>17</v>
+      </c>
+      <c r="Y134" s="22">
+        <v>43936</v>
+      </c>
+      <c r="Z134" s="22">
+        <v>43937</v>
       </c>
       <c r="AA134" s="9" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:27">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H135" s="5"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M135" s="27"/>
-      <c r="N135" s="11">
-        <v>43925</v>
-      </c>
+      <c r="I135" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J135" s="20">
+        <v>43917</v>
+      </c>
+      <c r="K135" s="20">
+        <v>43917</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="11"/>
       <c r="O135" s="2"/>
-      <c r="P135" s="11">
-        <v>43926</v>
-      </c>
+      <c r="P135" s="11"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="11">
-        <v>43944</v>
+        <v>43936</v>
       </c>
       <c r="U135" s="2"/>
       <c r="V135" s="11">
-        <v>43945</v>
+        <v>43936</v>
       </c>
       <c r="W135" s="2"/>
       <c r="X135" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y135" s="30">
-        <v>43948</v>
-      </c>
-      <c r="Z135" s="30">
-        <v>43951</v>
-      </c>
-      <c r="AA135" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="Y135" s="22">
+        <v>43937</v>
+      </c>
+      <c r="Z135" s="24">
+        <v>43938</v>
+      </c>
+      <c r="AA135" s="9" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="136" spans="1:27">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H136" s="5"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M136" s="2"/>
+      <c r="I136" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J136" s="12">
+        <v>43916</v>
+      </c>
+      <c r="K136" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L136" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M136" s="19"/>
       <c r="N136" s="11">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="11">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="11">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="U136" s="2"/>
       <c r="V136" s="11">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="W136" s="2"/>
       <c r="X136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y136" s="22">
+        <v>43941</v>
+      </c>
+      <c r="Z136" s="22">
+        <v>43944</v>
+      </c>
+      <c r="AA136" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J137" s="12">
+        <v>43916</v>
+      </c>
+      <c r="K137" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L137" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M137" s="19"/>
+      <c r="N137" s="11">
+        <v>43922</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="11">
+        <v>43923</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S137" s="2"/>
+      <c r="T137" s="11">
+        <v>43937</v>
+      </c>
+      <c r="U137" s="2"/>
+      <c r="V137" s="11">
+        <v>43938</v>
+      </c>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y137" s="22">
+        <v>43941</v>
+      </c>
+      <c r="Z137" s="22">
+        <v>43944</v>
+      </c>
+      <c r="AA137" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H138" s="5"/>
+      <c r="I138" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J138" s="12">
+        <v>43916</v>
+      </c>
+      <c r="K138" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L138" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M138" s="19"/>
+      <c r="N138" s="11">
+        <v>43922</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="11">
+        <v>43923</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S138" s="2"/>
+      <c r="T138" s="11">
+        <v>43937</v>
+      </c>
+      <c r="U138" s="2"/>
+      <c r="V138" s="11">
+        <v>43938</v>
+      </c>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y138" s="22">
+        <v>43941</v>
+      </c>
+      <c r="Z138" s="22">
+        <v>43944</v>
+      </c>
+      <c r="AA138" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J139" s="12">
+        <v>43916</v>
+      </c>
+      <c r="K139" s="12">
+        <v>43916</v>
+      </c>
+      <c r="L139" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M139" s="19"/>
+      <c r="N139" s="11">
+        <v>43924</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" s="11">
+        <v>43925</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S139" s="2"/>
+      <c r="T139" s="11">
+        <v>43941</v>
+      </c>
+      <c r="U139" s="2"/>
+      <c r="V139" s="11">
+        <v>43941</v>
+      </c>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y139" s="22">
+        <v>43942</v>
+      </c>
+      <c r="Z139" s="22">
+        <v>43945</v>
+      </c>
+      <c r="AA139" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J140" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K140" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c r="N140" s="11">
+        <v>43924</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" s="11">
+        <v>43925</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S140" s="2"/>
+      <c r="T140" s="11">
+        <v>43942</v>
+      </c>
+      <c r="U140" s="2"/>
+      <c r="V140" s="11">
+        <v>43943</v>
+      </c>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y136" s="30">
+      <c r="Y140" s="22">
+        <v>43944</v>
+      </c>
+      <c r="Z140" s="22">
         <v>43948</v>
       </c>
-      <c r="Z136" s="30">
+      <c r="AA140" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H141" s="5"/>
+      <c r="I141" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J141" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K141" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L141" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M141" s="19"/>
+      <c r="N141" s="11">
+        <v>43924</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" s="11">
+        <v>43925</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S141" s="2"/>
+      <c r="T141" s="11">
+        <v>43942</v>
+      </c>
+      <c r="U141" s="2"/>
+      <c r="V141" s="11">
+        <v>43943</v>
+      </c>
+      <c r="W141" s="2"/>
+      <c r="X141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y141" s="22">
+        <v>43944</v>
+      </c>
+      <c r="Z141" s="22">
+        <v>43948</v>
+      </c>
+      <c r="AA141" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H142" s="5"/>
+      <c r="I142" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J142" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K142" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="11">
+        <v>43924</v>
+      </c>
+      <c r="O142" s="2"/>
+      <c r="P142" s="11">
+        <v>43925</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="11">
+        <v>43942</v>
+      </c>
+      <c r="U142" s="2"/>
+      <c r="V142" s="11">
+        <v>43943</v>
+      </c>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y142" s="22">
+        <v>43944</v>
+      </c>
+      <c r="Z142" s="22">
+        <v>43948</v>
+      </c>
+      <c r="AA142" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J143" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K143" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="11">
+        <v>43925</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" s="11">
+        <v>43926</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S143" s="2"/>
+      <c r="T143" s="11">
+        <v>43942</v>
+      </c>
+      <c r="U143" s="2"/>
+      <c r="V143" s="11">
+        <v>43943</v>
+      </c>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y143" s="22">
+        <v>43944</v>
+      </c>
+      <c r="Z143" s="22">
+        <v>43948</v>
+      </c>
+      <c r="AA143" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J144" s="12">
+        <v>43914</v>
+      </c>
+      <c r="K144" s="12">
+        <v>43914</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="11">
+        <v>43925</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="11">
+        <v>43926</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S144" s="2"/>
+      <c r="T144" s="11">
+        <v>43944</v>
+      </c>
+      <c r="U144" s="2"/>
+      <c r="V144" s="11">
+        <v>43945</v>
+      </c>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y144" s="22">
+        <v>43948</v>
+      </c>
+      <c r="Z144" s="22">
         <v>43951</v>
       </c>
-      <c r="AA136" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="7:8">
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-    </row>
-    <row r="138" spans="7:8">
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-    </row>
-    <row r="139" spans="7:8">
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-    </row>
-    <row r="140" spans="7:8">
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-    </row>
-    <row r="141" spans="7:8">
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-    </row>
-    <row r="142" spans="7:8">
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-    </row>
-    <row r="143" spans="7:8">
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-    </row>
-    <row r="144" spans="7:8">
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-    </row>
-    <row r="145" spans="7:8">
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-    </row>
-    <row r="146" spans="7:8">
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
+      <c r="AA144" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M145" s="19"/>
+      <c r="N145" s="11">
+        <v>43925</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="11">
+        <v>43926</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S145" s="2"/>
+      <c r="T145" s="11">
+        <v>43944</v>
+      </c>
+      <c r="U145" s="2"/>
+      <c r="V145" s="11">
+        <v>43945</v>
+      </c>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y145" s="22">
+        <v>43948</v>
+      </c>
+      <c r="Z145" s="22">
+        <v>43951</v>
+      </c>
+      <c r="AA145" s="9"/>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="11">
+        <v>43925</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="11">
+        <v>43926</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S146" s="2"/>
+      <c r="T146" s="11">
+        <v>43944</v>
+      </c>
+      <c r="U146" s="2"/>
+      <c r="V146" s="11">
+        <v>43945</v>
+      </c>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y146" s="22">
+        <v>43948</v>
+      </c>
+      <c r="Z146" s="22">
+        <v>43951</v>
+      </c>
+      <c r="AA146" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="147" spans="7:8">
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="7:8">
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
     </row>
     <row r="149" spans="7:8">
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
     </row>
     <row r="150" spans="7:8">
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
     </row>
     <row r="151" spans="7:8">
-      <c r="G151" s="32"/>
-      <c r="H151" s="32"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
     </row>
     <row r="152" spans="7:8">
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
     </row>
     <row r="153" spans="7:8">
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
     </row>
     <row r="154" spans="7:8">
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
     </row>
     <row r="155" spans="7:8">
-      <c r="G155" s="32"/>
-      <c r="H155" s="32"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
     </row>
     <row r="156" spans="7:8">
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
     </row>
     <row r="157" spans="7:8">
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
     </row>
     <row r="158" spans="7:8">
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
     </row>
     <row r="159" spans="7:8">
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
     </row>
     <row r="160" spans="7:8">
-      <c r="G160" s="32"/>
-      <c r="H160" s="32"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
     </row>
     <row r="161" spans="7:8">
-      <c r="G161" s="32"/>
-      <c r="H161" s="32"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
     </row>
     <row r="162" spans="7:8">
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
     </row>
     <row r="163" spans="7:8">
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
     </row>
     <row r="164" spans="7:8">
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
     </row>
     <row r="165" spans="7:8">
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
     </row>
     <row r="166" spans="7:8">
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
     </row>
     <row r="167" spans="7:8">
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
     </row>
     <row r="168" spans="7:8">
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
     </row>
     <row r="169" spans="7:8">
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
     </row>
     <row r="170" spans="7:8">
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
     </row>
     <row r="171" spans="7:8">
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
     </row>
     <row r="172" spans="7:8">
-      <c r="G172" s="32"/>
-      <c r="H172" s="32"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
     </row>
     <row r="173" spans="7:8">
-      <c r="G173" s="32"/>
-      <c r="H173" s="32"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
     </row>
     <row r="174" spans="7:8">
-      <c r="G174" s="32"/>
-      <c r="H174" s="32"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
     </row>
     <row r="175" spans="7:8">
-      <c r="G175" s="32"/>
-      <c r="H175" s="32"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
     </row>
     <row r="176" spans="7:8">
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
     </row>
     <row r="177" spans="7:8">
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
     </row>
     <row r="178" spans="7:8">
-      <c r="G178" s="32"/>
-      <c r="H178" s="32"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
     </row>
     <row r="179" spans="7:8">
-      <c r="G179" s="32"/>
-      <c r="H179" s="32"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="23"/>
     </row>
     <row r="180" spans="7:8">
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
     </row>
     <row r="181" spans="7:8">
-      <c r="G181" s="32"/>
-      <c r="H181" s="32"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
     </row>
     <row r="182" spans="7:8">
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23"/>
     </row>
     <row r="183" spans="7:8">
-      <c r="G183" s="32"/>
-      <c r="H183" s="32"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="23"/>
     </row>
     <row r="184" spans="7:8">
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
     </row>
     <row r="185" spans="7:8">
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23"/>
     </row>
     <row r="186" spans="7:8">
-      <c r="G186" s="32"/>
-      <c r="H186" s="32"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23"/>
     </row>
     <row r="187" spans="7:8">
-      <c r="G187" s="32"/>
-      <c r="H187" s="32"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
     </row>
     <row r="188" spans="7:8">
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23"/>
     </row>
     <row r="189" spans="7:8">
-      <c r="G189" s="32"/>
-      <c r="H189" s="32"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23"/>
     </row>
     <row r="190" spans="7:8">
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="23"/>
     </row>
     <row r="192" spans="7:8">
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="23"/>
     </row>
     <row r="193" spans="7:8">
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="23"/>
     </row>
     <row r="194" spans="7:8">
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
     </row>
     <row r="195" spans="7:8">
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
     </row>
     <row r="196" spans="7:8">
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
+      <c r="G196" s="23"/>
+      <c r="H196" s="23"/>
     </row>
     <row r="197" spans="7:8">
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23"/>
     </row>
     <row r="198" spans="7:8">
-      <c r="G198" s="32"/>
-      <c r="H198" s="32"/>
+      <c r="G198" s="23"/>
+      <c r="H198" s="23"/>
     </row>
     <row r="199" spans="7:8">
-      <c r="G199" s="32"/>
-      <c r="H199" s="32"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
     </row>
     <row r="200" spans="7:8">
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="7:8">
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="7:8">
+      <c r="G202" s="23"/>
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="7:8">
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="7:8">
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="7:8">
+      <c r="G205" s="23"/>
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="7:8">
+      <c r="G206" s="23"/>
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="7:8">
+      <c r="G207" s="23"/>
+      <c r="H207" s="23"/>
+    </row>
+    <row r="208" spans="7:8">
+      <c r="G208" s="23"/>
+      <c r="H208" s="23"/>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209" s="23"/>
+      <c r="H209" s="23"/>
+    </row>
+    <row r="210" spans="7:8">
+      <c r="G210" s="23"/>
+      <c r="H210" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1059">
+  <mergeCells count="1132">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -9527,7 +9947,6 @@
     <mergeCell ref="R107:S107"/>
     <mergeCell ref="T107:U107"/>
     <mergeCell ref="V107:W107"/>
-    <mergeCell ref="E108:F108"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
@@ -9598,6 +10017,7 @@
     <mergeCell ref="R117:S117"/>
     <mergeCell ref="T117:U117"/>
     <mergeCell ref="V117:W117"/>
+    <mergeCell ref="E118:F118"/>
     <mergeCell ref="G118:H118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
@@ -9732,15 +10152,75 @@
     <mergeCell ref="T136:U136"/>
     <mergeCell ref="V136:W136"/>
     <mergeCell ref="G137:H137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:W137"/>
     <mergeCell ref="G138:H138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="R138:S138"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="V138:W138"/>
     <mergeCell ref="G139:H139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="R139:S139"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="V139:W139"/>
     <mergeCell ref="G140:H140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="R140:S140"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="V140:W140"/>
     <mergeCell ref="G141:H141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="R141:S141"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="V141:W141"/>
     <mergeCell ref="G142:H142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="V142:W142"/>
     <mergeCell ref="G143:H143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="T143:U143"/>
+    <mergeCell ref="V143:W143"/>
     <mergeCell ref="G144:H144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="R144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="V144:W144"/>
     <mergeCell ref="G145:H145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="R145:S145"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="V145:W145"/>
     <mergeCell ref="G146:H146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="V146:W146"/>
     <mergeCell ref="G147:H147"/>
     <mergeCell ref="G148:H148"/>
     <mergeCell ref="G149:H149"/>
@@ -9795,6 +10275,16 @@
     <mergeCell ref="G198:H198"/>
     <mergeCell ref="G199:H199"/>
     <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
     <mergeCell ref="E80:F84"/>
     <mergeCell ref="E75:F79"/>
     <mergeCell ref="C72:D73"/>
@@ -9818,24 +10308,27 @@
     <mergeCell ref="E19:F21"/>
     <mergeCell ref="E7:F13"/>
     <mergeCell ref="E2:F6"/>
-    <mergeCell ref="E109:F111"/>
-    <mergeCell ref="A91:B129"/>
-    <mergeCell ref="E119:F125"/>
-    <mergeCell ref="E126:F129"/>
-    <mergeCell ref="C104:D129"/>
-    <mergeCell ref="E112:F115"/>
-    <mergeCell ref="E116:F118"/>
-    <mergeCell ref="E91:F98"/>
-    <mergeCell ref="E99:F103"/>
-    <mergeCell ref="E104:F107"/>
-    <mergeCell ref="C91:D103"/>
     <mergeCell ref="E85:F87"/>
     <mergeCell ref="E88:F90"/>
-    <mergeCell ref="C75:D90"/>
-    <mergeCell ref="A2:B90"/>
+    <mergeCell ref="E119:F121"/>
+    <mergeCell ref="A101:B139"/>
+    <mergeCell ref="E129:F135"/>
+    <mergeCell ref="E136:F139"/>
+    <mergeCell ref="C114:D139"/>
+    <mergeCell ref="E122:F125"/>
+    <mergeCell ref="E126:F128"/>
+    <mergeCell ref="E101:F108"/>
+    <mergeCell ref="E109:F113"/>
+    <mergeCell ref="E114:F117"/>
+    <mergeCell ref="C101:D113"/>
+    <mergeCell ref="E91:F95"/>
+    <mergeCell ref="C75:D95"/>
+    <mergeCell ref="C96:D100"/>
+    <mergeCell ref="E96:F100"/>
+    <mergeCell ref="A2:B100"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AA48 AA49 AA50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AA69 AA70 AA85 AA86 AA87 AA88 AA89 AA90 AA71:AA84 AA91:AA103 AA112:AA114 AA115:AA118 AA119:AA123 AA130:AA136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1 AA71 AA85 AA91 AA96 AA2:AA70 AA72:AA79 AA80:AA84 AA86:AA90 AA92:AA95 AA97:AA100 AA101:AA113 AA122:AA124 AA125:AA128 AA129:AA133 AA134:AA139 AA140:AA146">
       <formula1>"Ui开始,UI结束,后端开始,后端完成,前端开始,前端完成,测试开始,测试完成"</formula1>
     </dataValidation>
   </dataValidations>
